--- a/leje.xlsx
+++ b/leje.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="194">
   <si>
     <t>tag</t>
   </si>
@@ -19,88 +19,1285 @@
     <t>title</t>
   </si>
   <si>
+    <t>excerpt</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>energyLabel</t>
+  </si>
+  <si>
+    <t>caseNumber</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>facilities</t>
+  </si>
+  <si>
+    <t>technique</t>
+  </si>
+  <si>
     <t>KONTOR TIL LEJE</t>
   </si>
   <si>
     <t>Prags Boulevard 49B, 2300 København S</t>
   </si>
   <si>
+    <t>Unikt lejemål i gammel chokoladefabrik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 502 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                595.372,-
+                Årlig leje inkl. drift i alt kr.
+                689.246,-
+                Md. leje inkl. drift i alt kr.
+                57.437,-
+                Årlig leje inkl. drift pr. m²
+                1.373,-
+                Årlige driftsudgifter kr.
+                93.874,-
+                Årlige driftsudgifter pr. m²
+                187,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              502 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Parkering
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Personelevator
+            </t>
+  </si>
+  <si>
     <t>DETAILHANDEL/BUTIK TIL LEJE</t>
   </si>
   <si>
     <t>Stejlhøj 28, 4400 Kalundborg</t>
   </si>
   <si>
+    <t>Tilvrikning efter aftale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 906 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detailhandel/butik </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Butik
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                950.000,-
+                Årlig leje inkl. drift i alt kr.
+                950.000,-
+                Md. leje inkl. drift i alt kr.
+                79.167,-
+                Årlig leje inkl. drift pr. m²
+                1.049,-
+                Årlige driftsudgifter kr.
+                0,-
+                Årlige driftsudgifter pr. m²
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              906 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Port
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 499 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                698.600,-
+                Årlig leje inkl. drift i alt kr.
+                791.913,-
+                Md. leje inkl. drift i alt kr.
+                65.993,-
+                Årlig leje inkl. drift pr. m²
+                1.587,-
+                Årlige driftsudgifter kr.
+                93.313,-
+                Årlige driftsudgifter pr. m²
+                187,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              499 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
     <t>LAGER &amp; PRODUKTION TIL LEJE</t>
   </si>
   <si>
     <t>Dalsagervej 25, 9850 Hirtshals</t>
   </si>
   <si>
+    <t>Værksted/udstilling - velegnet til brugtbilhandel og meget a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 198 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lager &amp; Produktion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Værksted
+                Lager
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                94.050,-
+                Årlig leje inkl. drift i alt kr.
+                94.050,-
+                Md. leje inkl. drift i alt kr.
+                7.838,-
+                Årlig leje inkl. drift pr. m²
+                475,-
+                Årlige driftsudgifter kr.
+                0,-
+                Årlige driftsudgifter pr. m²
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              198 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              5067 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Garage
+                Toilet
+                Parkeringsplads
+                Køkken
+                Lager
+                Kontor
+            </t>
+  </si>
+  <si>
     <t>Havnepladsen 30, 9900 Frederikshavn</t>
   </si>
   <si>
+    <t>Centralt beliggende 306 m2 kontor og lageerejendom med læsse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 306 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Lagerbygning
+                Lager
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                122.400,-
+                Årlig leje inkl. drift i alt kr.
+                122.400,-
+                Md. leje inkl. drift i alt kr.
+                10.200,-
+                Årlig leje inkl. drift pr. m²
+                400,-
+                Årlige driftsudgifter kr.
+                0,-
+                Årlige driftsudgifter pr. m²
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              306 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Omklædning
+                Toilet
+                Kantine
+                Læsserampe
+                Port
+                Køkken
+                Lager
+                Kontor
+            </t>
+  </si>
+  <si>
     <t>HOTEL &amp; RESTAURANT TIL LEJE</t>
   </si>
   <si>
     <t>Ryesgade 29, st. th, 8000 Aarhus C</t>
   </si>
   <si>
+    <t>Helt ny restaurant, på bedste placering, klar til drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 399 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  C
+                    Energimærke C
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel &amp; Restaurant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Restaurant
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                1.197.000,-
+                Årlig leje inkl. drift i alt kr.
+                1.235.000,-
+                Md. leje inkl. drift i alt kr.
+                102.917,-
+                Årlig leje inkl. drift pr. m²
+                3.095,-
+                Årlige driftsudgifter kr.
+                38.000,-
+                Årlige driftsudgifter pr. m²
+                95,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              399 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Facadeparti
+                Glasfacade
+                Toilet
+                Lagerfacilitet
+                Køkken
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Kølerum
+                Køleskab
+                Udsugning
+                Ventilation
+            </t>
+  </si>
+  <si>
     <t>GRUNDE TIL LEJE</t>
   </si>
   <si>
     <t>Havkajakvej 999, 2300 København S</t>
   </si>
   <si>
+    <t>Areal til salgsvogne og minigolf i Amager Strandpark</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1250 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grunde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                124.400,-
+                Årlig leje inkl. drift i alt kr.
+                124.400,-
+                Md. leje inkl. drift i alt kr.
+                10.367,-
+                Årlig leje inkl. drift pr. m²
+                0,-
+                Årlige driftsudgifter kr.
+                0,-
+                Årlige driftsudgifter pr. m²
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              0 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              1250 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Minigolf
+                Sauna
+            </t>
+  </si>
+  <si>
     <t>Nørregade 6, 4100 Ringsted</t>
   </si>
   <si>
+    <t>Nyistandsat og indflytningsklart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                426.700,-
+                Årlig leje inkl. drift i alt kr.
+                426.700,-
+                Md. leje inkl. drift i alt kr.
+                35.558,-
+                Årlig leje inkl. drift pr. m²
+                850,-
+                Årlige driftsudgifter kr.
+                0,-
+                Årlige driftsudgifter pr. m²
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Baggård
+                Kælder
+                Parkeringsareal
+                Storrumskontor
+            </t>
+  </si>
+  <si>
     <t>Storebælts Erhvervspark 3, 4220 Korsør</t>
   </si>
   <si>
+    <t>Lejemål med god central beliggenhed i Korsør</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3007 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Domicil
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                2.104.900,-
+                Årlig leje inkl. drift i alt kr.
+                2.285.320,-
+                Md. leje inkl. drift i alt kr.
+                190.443,-
+                Årlig leje inkl. drift pr. m²
+                760,-
+                Årlige driftsudgifter kr.
+                180.420,-
+                Årlige driftsudgifter pr. m²
+                60,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              3007 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              9003 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Cykelskur
+                Kantine
+                Kælder
+                Køkkenfacilitet
+                Møderum
+                Parkering
+                Reception
+                Tegltag
+                Toiletfaciliteter
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Elevator
+            </t>
+  </si>
+  <si>
     <t>Sandtoften 10, 2820 Gentofte</t>
   </si>
   <si>
+    <t>Velbeliggende flot kontorlejemål fra 12 - 32m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Kontor
+                Kontorer
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                64.000,-
+                Årlig leje inkl. drift i alt kr.
+                64.000,-
+                Md. leje inkl. drift i alt kr.
+                5.333,-
+                Årlig leje inkl. drift pr. m²
+                2.000,-
+                Årlige driftsudgifter kr.
+                0,-
+                Årlige driftsudgifter pr. m²
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              32 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Gård
+                Mødelokale
+                Parkering
+                Toiletter
+                Køkken
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Internet
+            </t>
+  </si>
+  <si>
+    <t>Velbeliggende flotte kontorlejemål i oprindelig industristil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                24.000,-
+                Årlig leje inkl. drift i alt kr.
+                24.000,-
+                Md. leje inkl. drift i alt kr.
+                2.000,-
+                Årlig leje inkl. drift pr. m²
+                2.000,-
+                Årlige driftsudgifter kr.
+                0,-
+                Årlige driftsudgifter pr. m²
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              12 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
     <t>Christian IX's Gade 10, 1111 København K</t>
   </si>
   <si>
+    <t>Charmerende kontor midt i byens centrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 613 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                1.118.725,-
+                Årlig leje inkl. drift i alt kr.
+                1.409.287,-
+                Md. leje inkl. drift i alt kr.
+                117.441,-
+                Årlig leje inkl. drift pr. m²
+                2.299,-
+                Årlige driftsudgifter kr.
+                290.562,-
+                Årlige driftsudgifter pr. m²
+                474,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              613 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Balkon
+                Indgangsparti
+                Kantineområde
+                Tekøkken
+                Mødecenter
+                Parkering
+                Storrumskontor
+                Toiletter
+                Kontor
+            </t>
+  </si>
+  <si>
     <t>Sindbjerglundvej 10, 7100 Vejle</t>
   </si>
   <si>
+    <t>Lagerejendom i Lindved tæt på motorvej</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1713 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Lagerejendom
+                Lager
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                325.470,-
+                Årlig leje inkl. drift i alt kr.
+                325.470,-
+                Md. leje inkl. drift i alt kr.
+                27.123,-
+                Årlig leje inkl. drift pr. m²
+                190,-
+                Årlige driftsudgifter kr.
+                0,-
+                Årlige driftsudgifter pr. m²
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              1713 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Betongulv
+                Hall
+                Saddeltag
+                Port
+                Lager
+            </t>
+  </si>
+  <si>
     <t>Strandgade 56, 1401 København K</t>
   </si>
   <si>
+    <t>Pakhuskontor med kvalitet og sjæl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 340 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  B
+                    Energimærke B
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                756.500,-
+                Årlig leje inkl. drift i alt kr.
+                756.500,-
+                Md. leje inkl. drift i alt kr.
+                63.042,-
+                Årlig leje inkl. drift pr. m²
+                2.225,-
+                Årlige driftsudgifter kr.
+                0,-
+                Årlige driftsudgifter pr. m²
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              340 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Toilet
+                Loungeområde
+                Parkering
+                Trægulve
+                Køkken
+                Kontor
+            </t>
+  </si>
+  <si>
     <t>Østergade 19, 5750 Ringe</t>
   </si>
   <si>
+    <t>Kontorlejemål i velholdt og præsentabel ejendom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 239 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  F
+                    Energimærke F
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                179.250,-
+                Årlig leje inkl. drift i alt kr.
+                196.930,-
+                Md. leje inkl. drift i alt kr.
+                16.411,-
+                Årlig leje inkl. drift pr. m²
+                824,-
+                Årlige driftsudgifter kr.
+                17.680,-
+                Årlige driftsudgifter pr. m²
+                74,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              239 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Depotrum
+                Tekøkken
+                Parkeringsmulighed
+                Kontor
+            </t>
+  </si>
+  <si>
     <t>Kronprinsessegade 10, 1306 København K</t>
   </si>
   <si>
+    <t>Lyse lokaler i Kronprinsessegade til kontor/butik/showroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 125 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                180.000,-
+                Årlig leje inkl. drift i alt kr.
+                180.000,-
+                Md. leje inkl. drift i alt kr.
+                15.000,-
+                Årlig leje inkl. drift pr. m²
+                1.440,-
+                Årlige driftsudgifter kr.
+                0,-
+                Årlige driftsudgifter pr. m²
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              125 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Toilet
+                Parkering
+                Køkken
+                Lager
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Udsugning
+            </t>
+  </si>
+  <si>
     <t>Banegårdspladsen 10C, 4700 Næstved</t>
   </si>
   <si>
+    <t>Erhvervslejemål ideelt til liberalt erhverv!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  D
+                    Energimærke D
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Café
+                Restaurant
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                300.300,-
+                Årlig leje inkl. drift i alt kr.
+                300.300,-
+                Md. leje inkl. drift i alt kr.
+                25.025,-
+                Årlig leje inkl. drift pr. m²
+                1.300,-
+                Årlige driftsudgifter kr.
+                0,-
+                Årlige driftsudgifter pr. m²
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              231 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Køkkenfacilitet
+                Køkken
+            </t>
+  </si>
+  <si>
     <t>Industriparken 22A, 2750 Ballerup</t>
   </si>
   <si>
+    <t>Kontor og showroom i parterre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 529 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  E
+                    Energimærke E
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Kontor
+                Undervisning
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                233.289,-
+                Årlig leje inkl. drift i alt kr.
+                321.632,-
+                Md. leje inkl. drift i alt kr.
+                26.803,-
+                Årlig leje inkl. drift pr. m²
+                608,-
+                Årlige driftsudgifter kr.
+                88.343,-
+                Årlige driftsudgifter pr. m²
+                167,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              529 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Frokost
+                Mødelokale
+                Parkeringsmulighed
+                Toiletforhold
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t>529 m² kontor og showroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Mødelokale
+                Parkeringsmulighed
+                Storrumskontor
+                Toiletforhold
+                Kontor
+            </t>
+  </si>
+  <si>
     <t>Vesterbrogade 124B, 1620 København V</t>
   </si>
   <si>
+    <t>Kontor i New Yorker-stil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 119 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                224.220,-
+                Årlig leje inkl. drift i alt kr.
+                249.900,-
+                Md. leje inkl. drift i alt kr.
+                20.825,-
+                Årlig leje inkl. drift pr. m²
+                2.100,-
+                Årlige driftsudgifter kr.
+                25.680,-
+                Årlige driftsudgifter pr. m²
+                216,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              119 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
     <t>Brogade 3, 6933 Kibæk</t>
   </si>
   <si>
+    <t>Velbeliggende butikslejemål med regulært salgsområde</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 250 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                50.000,-
+                Årlig leje inkl. drift i alt kr.
+                50.000,-
+                Md. leje inkl. drift i alt kr.
+                4.167,-
+                Årlig leje inkl. drift pr. m²
+                200,-
+                Årlige driftsudgifter kr.
+                0,-
+                Årlige driftsudgifter pr. m²
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              250 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Fryserum
+                Parkering
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Kølerum
+            </t>
+  </si>
+  <si>
     <t>Søren Frichs Vej 38K, 8230 Åbyhøj</t>
   </si>
   <si>
+    <t>Kontorlejemål i Kontorfællesskabet 38K</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Kontorfælleskab
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                21.760,-
+                Årlig leje inkl. drift i alt kr.
+                37.024,-
+                Md. leje inkl. drift i alt kr.
+                3.085,-
+                Årlig leje inkl. drift pr. m²
+                2.178,-
+                Årlige driftsudgifter kr.
+                15.264,-
+                Årlige driftsudgifter pr. m²
+                898,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              17 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Glasparti
+                Kantine
+                Skillevægge
+                Toiletter
+                Trægulve
+                Køkken
+                Kontor
+            </t>
+  </si>
+  <si>
     <t>Glerupvej 7, 2610 Rødovre</t>
   </si>
   <si>
+    <t>Regulært lager med rulleport tæt ved motorvejen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 286 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Lager
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                207.350,-
+                Årlig leje inkl. drift i alt kr.
+                207.350,-
+                Md. leje inkl. drift i alt kr.
+                17.279,-
+                Årlig leje inkl. drift pr. m²
+                725,-
+                Årlige driftsudgifter kr.
+                0,-
+                Årlige driftsudgifter pr. m²
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              286 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Bad
+                Toilet
+                Gård
+                Port
+                Lagerlokale
+                Køkken
+                Lager
+                Kontor
+            </t>
+  </si>
+  <si>
     <t>Hammerholmen 9A, 2650 Hvidovre</t>
   </si>
   <si>
+    <t>Stort lager med køle- og frostrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3122 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                2.965.900,-
+                Årlig leje inkl. drift i alt kr.
+                3.387.370,-
+                Md. leje inkl. drift i alt kr.
+                282.281,-
+                Årlig leje inkl. drift pr. m²
+                1.085,-
+                Årlige driftsudgifter kr.
+                421.470,-
+                Årlige driftsudgifter pr. m²
+                135,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              3122 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Parkering
+                Port
+                Lager
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Køl
+            </t>
+  </si>
+  <si>
     <t>Hammerholmen 43C, 2650 Hvidovre</t>
   </si>
   <si>
+    <t>Moderne istandsat kontor og showroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1098 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                768.600,-
+                Årlig leje inkl. drift i alt kr.
+                916.830,-
+                Md. leje inkl. drift i alt kr.
+                76.403,-
+                Årlig leje inkl. drift pr. m²
+                835,-
+                Årlige driftsudgifter kr.
+                148.230,-
+                Årlige driftsudgifter pr. m²
+                135,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              1098 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Indgangsparti
+                Spiseplads
+                Kontorlandskab
+                Møderum
+                Parkeringsplads
+                Port
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Tv
+            </t>
+  </si>
+  <si>
     <t>Roholmsvej 14A, 2620 Albertslund</t>
+  </si>
+  <si>
+    <t>Nyistandsat lejemål ideelt til kontor og showroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1097 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                822.750,-
+                Årlig leje inkl. drift i alt kr.
+                970.845,-
+                Md. leje inkl. drift i alt kr.
+                80.904,-
+                Årlig leje inkl. drift pr. m²
+                885,-
+                Årlige driftsudgifter kr.
+                148.095,-
+                Årlige driftsudgifter pr. m²
+                135,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              1097 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Bad
+                Depotrum
+                Kantine
+                Møderum
+                Parkeringsforhold
+                Reception
+                Toiletter
+                Køkken
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Vareelevator
+            </t>
   </si>
 </sst>
 </file>
@@ -477,223 +1674,1033 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:L27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
         <v>16</v>
       </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
         <v>18</v>
       </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" t="s">
+        <v>135</v>
+      </c>
+      <c r="K18" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
+      <c r="B22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K22" t="s">
+        <v>157</v>
+      </c>
+      <c r="L22" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" t="s">
+        <v>163</v>
+      </c>
+      <c r="J23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" t="s">
+        <v>165</v>
+      </c>
+      <c r="L23" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" t="s">
+        <v>169</v>
+      </c>
+      <c r="I24" t="s">
+        <v>170</v>
+      </c>
+      <c r="J24" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L24" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s">
+        <v>169</v>
+      </c>
+      <c r="I25" t="s">
+        <v>176</v>
+      </c>
+      <c r="J25" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" t="s">
+        <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" t="s">
+        <v>183</v>
+      </c>
+      <c r="J26" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" t="s">
+        <v>185</v>
+      </c>
+      <c r="L26" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>187</v>
+      </c>
+      <c r="C27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" t="s">
+        <v>190</v>
+      </c>
+      <c r="J27" t="s">
+        <v>191</v>
+      </c>
+      <c r="K27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L27" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/leje.xlsx
+++ b/leje.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="217">
   <si>
     <t>tag</t>
   </si>
@@ -49,9 +49,733 @@
     <t>technique</t>
   </si>
   <si>
+    <t>LAGER &amp; PRODUKTION TIL LEJE</t>
+  </si>
+  <si>
+    <t>Hørsholmvej 17, 3050 Humlebæk</t>
+  </si>
+  <si>
+    <t>70 m2 lagerlokale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            </t>
+  </si>
+  <si>
+    <t>H-17-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lager &amp; Produktion </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                40.800,-
+                Årlig leje inkl. drift i alt kr.
+                43.200,-
+                Md. leje inkl. drift i alt kr.
+                3.600,-
+                Årlig leje inkl. drift pr. m²
+                617,-
+                Årlige driftsudgifter kr.
+                2.400,-
+                Årlige driftsudgifter pr. m²
+                34,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              70 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Toilet
+                Lagerlokale
+            </t>
+  </si>
+  <si>
     <t>KONTOR TIL LEJE</t>
   </si>
   <si>
+    <t>Stæremosen 57, 3250 Gilleleje</t>
+  </si>
+  <si>
+    <t>Fleksibel kontorplads</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  D
+                    Energimærke D
+            </t>
+  </si>
+  <si>
+    <t>12-9041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Kontorfællesskab
+                Kontorplads
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                48.720,-
+                Årlig leje inkl. drift i alt kr.
+                48.720,-
+                Md. leje inkl. drift i alt kr.
+                4.060,-
+                Årlig leje inkl. drift pr. m²
+                1.160,-
+                Årlige driftsudgifter kr.
+                0,-
+                Årlige driftsudgifter pr. m²
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              42 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Lounge
+                Mødefaciliteter
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Internet
+            </t>
+  </si>
+  <si>
+    <t>Rådhustorvet 7, 3520 Farum</t>
+  </si>
+  <si>
+    <t>Indbydende og moderne kontorer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  B
+                    Energimærke B
+            </t>
+  </si>
+  <si>
+    <t>12-8915C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Kontorer
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                37.466,-
+                Årlig leje inkl. drift i alt kr.
+                37.466,-
+                Md. leje inkl. drift i alt kr.
+                3.122,-
+                Årlig leje inkl. drift pr. m²
+                1.430,-
+                Årlige driftsudgifter kr.
+                0,-
+                Årlige driftsudgifter pr. m²
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              26 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Glasparti
+                Madlavning
+                Parkeringsforhold
+                Toiletter
+                Køkken
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Elevator
+                Opvaskemaskine
+            </t>
+  </si>
+  <si>
+    <t>Krondalvej 8, 2610 Rødovre</t>
+  </si>
+  <si>
+    <t>KONTORLEJEMÅL TÆT PÅ MOTORVEJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 225 m²</t>
+  </si>
+  <si>
+    <t>L-400253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                135.000,-
+                Årlig leje inkl. drift i alt kr.
+                148.500,-
+                Md. leje inkl. drift i alt kr.
+                12.375,-
+                Årlig leje inkl. drift pr. m²
+                660,-
+                Årlige driftsudgifter kr.
+                13.500,-
+                Årlige driftsudgifter pr. m²
+                60,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              225 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Parkeringsmulighed
+                Toiletter
+                Køkken
+            </t>
+  </si>
+  <si>
+    <t>Scandiagade 8, 2450 København SV</t>
+  </si>
+  <si>
+    <t>Kantine, fitness, ventilation/køl, Metro, S-tog og parkering</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4694 m²</t>
+  </si>
+  <si>
+    <t>40-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                8.683.900,-
+                Årlig leje inkl. drift i alt kr.
+                10.247.002,-
+                Md. leje inkl. drift i alt kr.
+                853.917,-
+                Årlig leje inkl. drift pr. m²
+                2.183,-
+                Årlige driftsudgifter kr.
+                1.563.102,-
+                Årlige driftsudgifter pr. m²
+                333,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              4694 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Fitnessrum
+                Kantine
+                Tekøkken
+                Parkering
+                Plankegulv
+                Toiletter
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Elevator
+                Køl
+                Ventilation
+            </t>
+  </si>
+  <si>
+    <t>DETAILHANDEL/BUTIK TIL LEJE</t>
+  </si>
+  <si>
+    <t>Baumgartensvej 2, 5000 Odense C</t>
+  </si>
+  <si>
+    <t>Regulære lokaler med med attraktiv placering ud til Skibhusv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  C
+                    Energimærke C
+            </t>
+  </si>
+  <si>
+    <t>29924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detailhandel/butik </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                85.500,-
+                Årlig leje inkl. drift i alt kr.
+                85.500,-
+                Md. leje inkl. drift i alt kr.
+                7.125,-
+                Årlig leje inkl. drift pr. m²
+                950,-
+                Årlige driftsudgifter kr.
+                0,-
+                Årlige driftsudgifter pr. m²
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              90 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Badeværelse
+                Glasparti
+                Toilet
+                Kælderlokale
+                Parkering
+                Køkken
+            </t>
+  </si>
+  <si>
+    <t>Odeons Kvarter 19, 5000 Odense C</t>
+  </si>
+  <si>
+    <t>Topmoderne kontorlokaler med unik beliggenhed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 683 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  A2010
+                    Energimærke A2010
+            </t>
+  </si>
+  <si>
+    <t>29805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                853.750,-
+                Årlig leje inkl. drift i alt kr.
+                994.163,-
+                Md. leje inkl. drift i alt kr.
+                82.847,-
+                Årlig leje inkl. drift pr. m²
+                1.456,-
+                Årlige driftsudgifter kr.
+                140.413,-
+                Årlige driftsudgifter pr. m²
+                206,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              683 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Altan
+                Depot
+                Kantine
+                Mødefaciliteter
+                Parkeringskælder
+                Storrumskontor
+                Toiletter
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Klimaanlæg
+                Elevator
+                Tv
+            </t>
+  </si>
+  <si>
+    <t>Kærvej 12, 2970 Hørsholm</t>
+  </si>
+  <si>
+    <t>BRUGEREJENDOM MED LAGER OG KONTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1850 m²</t>
+  </si>
+  <si>
+    <t>L-400252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Lager
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                1.270.000,-
+                Årlig leje inkl. drift i alt kr.
+                1.506.000,-
+                Md. leje inkl. drift i alt kr.
+                125.500,-
+                Årlig leje inkl. drift pr. m²
+                814,-
+                Årlige driftsudgifter kr.
+                236.000,-
+                Årlige driftsudgifter pr. m²
+                128,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              1850 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Toilet
+                Kantine
+                Kælder
+                Parkering
+                Køkken
+                Lager
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 709 m²</t>
+  </si>
+  <si>
+    <t>29804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                850.800,-
+                Årlig leje inkl. drift i alt kr.
+                994.296,-
+                Md. leje inkl. drift i alt kr.
+                82.858,-
+                Årlig leje inkl. drift pr. m²
+                1.402,-
+                Årlige driftsudgifter kr.
+                143.496,-
+                Årlige driftsudgifter pr. m²
+                202,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              709 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t>Dalumvej 22, kælder, 5250 Odense SV</t>
+  </si>
+  <si>
+    <t>Butikslokale med central beliggenhed i Dalum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 295 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  A2
+                    Energimærke A2
+            </t>
+  </si>
+  <si>
+    <t>C-013017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                126.000,-
+                Årlig leje inkl. drift i alt kr.
+                128.000,-
+                Md. leje inkl. drift i alt kr.
+                10.667,-
+                Årlig leje inkl. drift pr. m²
+                434,-
+                Årlige driftsudgifter kr.
+                2.000,-
+                Årlige driftsudgifter pr. m²
+                7,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              295 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Lagerfacilitet
+                Parkering
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t>Ro's Have 12, 4000 Roskilde</t>
+  </si>
+  <si>
+    <t>Butikslejemål på 925 m² i ét plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 925 m²</t>
+  </si>
+  <si>
+    <t>20823221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Butik
+                Butikker
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                1.110.000,-
+                Årlig leje inkl. drift i alt kr.
+                1.314.773,-
+                Md. leje inkl. drift i alt kr.
+                109.564,-
+                Årlig leje inkl. drift pr. m²
+                1.421,-
+                Årlige driftsudgifter kr.
+                204.773,-
+                Årlige driftsudgifter pr. m²
+                221,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              925 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Glasparti
+                Toilet
+                Parkeringsplads
+                Port
+                Køkken
+                Lager
+                Kontor
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                        Lukket kontor          </t>
+  </si>
+  <si>
+    <t>Lejrvej 17, 3500 Værløse</t>
+  </si>
+  <si>
+    <t>Kontorfællesskab i omringet af grønne arealer</t>
+  </si>
+  <si>
+    <t>Lejrvej 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontorhotel </t>
+  </si>
+  <si>
+    <t>Sindbjerglundvej 10, 7100 Vejle</t>
+  </si>
+  <si>
+    <t>Lagerejendom i Lindved tæt på motorvej</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1713 m²</t>
+  </si>
+  <si>
+    <t>710010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Lager
+                Lagerejendom
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                325.470,-
+                Årlig leje inkl. drift i alt kr.
+                325.470,-
+                Md. leje inkl. drift i alt kr.
+                27.123,-
+                Årlig leje inkl. drift pr. m²
+                190,-
+                Årlige driftsudgifter kr.
+                0,-
+                Årlige driftsudgifter pr. m²
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              1713 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Betongulv
+                Hall
+                Saddeltag
+                Port
+                Lager
+            </t>
+  </si>
+  <si>
+    <t>Strandgade 56, 1401 København K</t>
+  </si>
+  <si>
+    <t>Pakhuskontor med kvalitet og sjæl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 340 m²</t>
+  </si>
+  <si>
+    <t>23618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Årlig leje
+                756.500,-
+                Årlig leje inkl. drift i alt kr.
+                756.500,-
+                Md. leje inkl. drift i alt kr.
+                63.042,-
+                Årlig leje inkl. drift pr. m²
+                2.225,-
+                Årlige driftsudgifter kr.
+                0,-
+                Årlige driftsudgifter pr. m²
+                0,-
+              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              Etage areal
+              340 m²
+              Sekundært areal
+              0 m²
+              Grund areal
+              0 m²
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Toilet
+                Loungeområde
+                Parkering
+                Trægulve
+                Køkken
+                Kontor
+            </t>
+  </si>
+  <si>
     <t>Prags Boulevard 49B, 2300 København S</t>
   </si>
   <si>
@@ -61,14 +785,7 @@
     <t xml:space="preserve"> 502 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-            </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Kontor </t>
+    <t>5-201- 4. tv.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -107,9 +824,6 @@
             </t>
   </si>
   <si>
-    <t>DETAILHANDEL/BUTIK TIL LEJE</t>
-  </si>
-  <si>
     <t>Stejlhøj 28, 4400 Kalundborg</t>
   </si>
   <si>
@@ -119,7 +833,7 @@
     <t xml:space="preserve"> 906 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">Detailhandel/butik </t>
+    <t>2018409</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -161,6 +875,9 @@
     <t xml:space="preserve"> 499 m²</t>
   </si>
   <si>
+    <t>5-201- 4. th.</t>
+  </si>
+  <si>
     <t xml:space="preserve">
                 Årlig leje
                 698.600,-
@@ -187,9 +904,6 @@
             </t>
   </si>
   <si>
-    <t>LAGER &amp; PRODUKTION TIL LEJE</t>
-  </si>
-  <si>
     <t>Dalsagervej 25, 9850 Hirtshals</t>
   </si>
   <si>
@@ -199,7 +913,7 @@
     <t xml:space="preserve"> 198 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">Lager &amp; Produktion </t>
+    <t>17673</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -253,6 +967,9 @@
     <t xml:space="preserve"> 306 m²</t>
   </si>
   <si>
+    <t>010923-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">
                 Lagerbygning
                 Lager
@@ -309,10 +1026,7 @@
     <t xml:space="preserve"> 399 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                  C
-                    Energimærke C
-            </t>
+    <t>811002528</t>
   </si>
   <si>
     <t xml:space="preserve">Hotel &amp; Restaurant </t>
@@ -379,6 +1093,9 @@
     <t xml:space="preserve"> 1250 m²</t>
   </si>
   <si>
+    <t>Minigolf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grunde </t>
   </si>
   <si>
@@ -420,6 +1137,9 @@
     <t>Nyistandsat og indflytningsklart</t>
   </si>
   <si>
+    <t>20523625</t>
+  </si>
+  <si>
     <t xml:space="preserve">
                 Årlig leje
                 426.700,-
@@ -453,6 +1173,9 @@
     <t xml:space="preserve"> 3007 m²</t>
   </si>
   <si>
+    <t>474012964</t>
+  </si>
+  <si>
     <t xml:space="preserve">
                 Domicil
             </t>
@@ -511,10 +1234,7 @@
     <t xml:space="preserve"> 32 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Kontor
-                Kontorer
-            </t>
+    <t>260998070</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -553,15 +1273,13 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Internet
-            </t>
-  </si>
-  <si>
     <t>Velbeliggende flotte kontorlejemål i oprindelig industristil</t>
   </si>
   <si>
     <t xml:space="preserve"> 12 m²</t>
+  </si>
+  <si>
+    <t>260998069</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -599,9 +1317,7 @@
     <t xml:space="preserve"> 613 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Kontor
-            </t>
+    <t>23633</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -640,663 +1356,6 @@
                 Storrumskontor
                 Toiletter
                 Kontor
-            </t>
-  </si>
-  <si>
-    <t>Sindbjerglundvej 10, 7100 Vejle</t>
-  </si>
-  <si>
-    <t>Lagerejendom i Lindved tæt på motorvej</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1713 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Lagerejendom
-                Lager
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Årlig leje
-                325.470,-
-                Årlig leje inkl. drift i alt kr.
-                325.470,-
-                Md. leje inkl. drift i alt kr.
-                27.123,-
-                Årlig leje inkl. drift pr. m²
-                190,-
-                Årlige driftsudgifter kr.
-                0,-
-                Årlige driftsudgifter pr. m²
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              1713 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Betongulv
-                Hall
-                Saddeltag
-                Port
-                Lager
-            </t>
-  </si>
-  <si>
-    <t>Strandgade 56, 1401 København K</t>
-  </si>
-  <si>
-    <t>Pakhuskontor med kvalitet og sjæl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 340 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                  B
-                    Energimærke B
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Årlig leje
-                756.500,-
-                Årlig leje inkl. drift i alt kr.
-                756.500,-
-                Md. leje inkl. drift i alt kr.
-                63.042,-
-                Årlig leje inkl. drift pr. m²
-                2.225,-
-                Årlige driftsudgifter kr.
-                0,-
-                Årlige driftsudgifter pr. m²
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              340 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Toilet
-                Loungeområde
-                Parkering
-                Trægulve
-                Køkken
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t>Østergade 19, 5750 Ringe</t>
-  </si>
-  <si>
-    <t>Kontorlejemål i velholdt og præsentabel ejendom</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 239 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                  F
-                    Energimærke F
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Årlig leje
-                179.250,-
-                Årlig leje inkl. drift i alt kr.
-                196.930,-
-                Md. leje inkl. drift i alt kr.
-                16.411,-
-                Årlig leje inkl. drift pr. m²
-                824,-
-                Årlige driftsudgifter kr.
-                17.680,-
-                Årlige driftsudgifter pr. m²
-                74,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              239 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Depotrum
-                Tekøkken
-                Parkeringsmulighed
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t>Kronprinsessegade 10, 1306 København K</t>
-  </si>
-  <si>
-    <t>Lyse lokaler i Kronprinsessegade til kontor/butik/showroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 125 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Årlig leje
-                180.000,-
-                Årlig leje inkl. drift i alt kr.
-                180.000,-
-                Md. leje inkl. drift i alt kr.
-                15.000,-
-                Årlig leje inkl. drift pr. m²
-                1.440,-
-                Årlige driftsudgifter kr.
-                0,-
-                Årlige driftsudgifter pr. m²
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              125 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Toilet
-                Parkering
-                Køkken
-                Lager
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Udsugning
-            </t>
-  </si>
-  <si>
-    <t>Banegårdspladsen 10C, 4700 Næstved</t>
-  </si>
-  <si>
-    <t>Erhvervslejemål ideelt til liberalt erhverv!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 231 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                  D
-                    Energimærke D
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Café
-                Restaurant
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Årlig leje
-                300.300,-
-                Årlig leje inkl. drift i alt kr.
-                300.300,-
-                Md. leje inkl. drift i alt kr.
-                25.025,-
-                Årlig leje inkl. drift pr. m²
-                1.300,-
-                Årlige driftsudgifter kr.
-                0,-
-                Årlige driftsudgifter pr. m²
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              231 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Køkkenfacilitet
-                Køkken
-            </t>
-  </si>
-  <si>
-    <t>Industriparken 22A, 2750 Ballerup</t>
-  </si>
-  <si>
-    <t>Kontor og showroom i parterre</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 529 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                  E
-                    Energimærke E
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Kontor
-                Undervisning
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Årlig leje
-                233.289,-
-                Årlig leje inkl. drift i alt kr.
-                321.632,-
-                Md. leje inkl. drift i alt kr.
-                26.803,-
-                Årlig leje inkl. drift pr. m²
-                608,-
-                Årlige driftsudgifter kr.
-                88.343,-
-                Årlige driftsudgifter pr. m²
-                167,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              529 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Frokost
-                Mødelokale
-                Parkeringsmulighed
-                Toiletforhold
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t>529 m² kontor og showroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Mødelokale
-                Parkeringsmulighed
-                Storrumskontor
-                Toiletforhold
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t>Vesterbrogade 124B, 1620 København V</t>
-  </si>
-  <si>
-    <t>Kontor i New Yorker-stil</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 119 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Årlig leje
-                224.220,-
-                Årlig leje inkl. drift i alt kr.
-                249.900,-
-                Md. leje inkl. drift i alt kr.
-                20.825,-
-                Årlig leje inkl. drift pr. m²
-                2.100,-
-                Årlige driftsudgifter kr.
-                25.680,-
-                Årlige driftsudgifter pr. m²
-                216,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              119 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
-  </si>
-  <si>
-    <t>Brogade 3, 6933 Kibæk</t>
-  </si>
-  <si>
-    <t>Velbeliggende butikslejemål med regulært salgsområde</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 250 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Årlig leje
-                50.000,-
-                Årlig leje inkl. drift i alt kr.
-                50.000,-
-                Md. leje inkl. drift i alt kr.
-                4.167,-
-                Årlig leje inkl. drift pr. m²
-                200,-
-                Årlige driftsudgifter kr.
-                0,-
-                Årlige driftsudgifter pr. m²
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              250 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Fryserum
-                Parkering
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Kølerum
-            </t>
-  </si>
-  <si>
-    <t>Søren Frichs Vej 38K, 8230 Åbyhøj</t>
-  </si>
-  <si>
-    <t>Kontorlejemål i Kontorfællesskabet 38K</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Kontorfælleskab
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Årlig leje
-                21.760,-
-                Årlig leje inkl. drift i alt kr.
-                37.024,-
-                Md. leje inkl. drift i alt kr.
-                3.085,-
-                Årlig leje inkl. drift pr. m²
-                2.178,-
-                Årlige driftsudgifter kr.
-                15.264,-
-                Årlige driftsudgifter pr. m²
-                898,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              17 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Glasparti
-                Kantine
-                Skillevægge
-                Toiletter
-                Trægulve
-                Køkken
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t>Glerupvej 7, 2610 Rødovre</t>
-  </si>
-  <si>
-    <t>Regulært lager med rulleport tæt ved motorvejen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 286 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Lager
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Årlig leje
-                207.350,-
-                Årlig leje inkl. drift i alt kr.
-                207.350,-
-                Md. leje inkl. drift i alt kr.
-                17.279,-
-                Årlig leje inkl. drift pr. m²
-                725,-
-                Årlige driftsudgifter kr.
-                0,-
-                Årlige driftsudgifter pr. m²
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              286 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Bad
-                Toilet
-                Gård
-                Port
-                Lagerlokale
-                Køkken
-                Lager
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t>Hammerholmen 9A, 2650 Hvidovre</t>
-  </si>
-  <si>
-    <t>Stort lager med køle- og frostrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3122 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Årlig leje
-                2.965.900,-
-                Årlig leje inkl. drift i alt kr.
-                3.387.370,-
-                Md. leje inkl. drift i alt kr.
-                282.281,-
-                Årlig leje inkl. drift pr. m²
-                1.085,-
-                Årlige driftsudgifter kr.
-                421.470,-
-                Årlige driftsudgifter pr. m²
-                135,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              3122 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Parkering
-                Port
-                Lager
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Køl
-            </t>
-  </si>
-  <si>
-    <t>Hammerholmen 43C, 2650 Hvidovre</t>
-  </si>
-  <si>
-    <t>Moderne istandsat kontor og showroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1098 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Årlig leje
-                768.600,-
-                Årlig leje inkl. drift i alt kr.
-                916.830,-
-                Md. leje inkl. drift i alt kr.
-                76.403,-
-                Årlig leje inkl. drift pr. m²
-                835,-
-                Årlige driftsudgifter kr.
-                148.230,-
-                Årlige driftsudgifter pr. m²
-                135,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              1098 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Indgangsparti
-                Spiseplads
-                Kontorlandskab
-                Møderum
-                Parkeringsplads
-                Port
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Tv
-            </t>
-  </si>
-  <si>
-    <t>Roholmsvej 14A, 2620 Albertslund</t>
-  </si>
-  <si>
-    <t>Nyistandsat lejemål ideelt til kontor og showroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1097 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Årlig leje
-                822.750,-
-                Årlig leje inkl. drift i alt kr.
-                970.845,-
-                Md. leje inkl. drift i alt kr.
-                80.904,-
-                Årlig leje inkl. drift pr. m²
-                885,-
-                Årlige driftsudgifter kr.
-                148.095,-
-                Årlige driftsudgifter pr. m²
-                135,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              1097 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Bad
-                Depotrum
-                Kantine
-                Møderum
-                Parkeringsforhold
-                Reception
-                Toiletter
-                Køkken
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Vareelevator
             </t>
   </si>
 </sst>
@@ -1738,19 +1797,19 @@
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1767,218 +1826,218 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1986,379 +2045,379 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" t="s">
         <v>77</v>
       </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>78</v>
-      </c>
-      <c r="J10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="I14" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="J14" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="K14" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="J15" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="K15" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="I17" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
         <v>129</v>
       </c>
-      <c r="C18" t="s">
-        <v>130</v>
-      </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" t="s">
         <v>134</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>135</v>
-      </c>
-      <c r="K18" t="s">
-        <v>136</v>
-      </c>
-      <c r="L18" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2366,37 +2425,37 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="I19" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2404,303 +2463,303 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="I20" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="K20" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="J21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="K21" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="J22" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="D23" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="J23" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="K23" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="D24" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H24" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="I24" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="J24" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="K24" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D25" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="J25" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="K25" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s">
-        <v>179</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="C26" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="D26" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I26" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="J26" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="K26" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s">
-        <v>186</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="D27" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H27" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I27" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="J27" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="K27" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/leje.xlsx
+++ b/leje.xlsx
@@ -100,10 +100,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Toilet
-                Lagerlokale
-            </t>
+    <t>Toilet, Lagerlokale</t>
   </si>
   <si>
     <t>KONTOR TIL LEJE</t>
@@ -130,10 +127,7 @@
     <t xml:space="preserve">Kontor </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Kontorfællesskab
-                Kontorplads
-            </t>
+    <t>Kontorfællesskab, Kontorplads</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -162,15 +156,10 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Lounge
-                Mødefaciliteter
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Internet
-            </t>
+    <t>Lounge, Mødefaciliteter</t>
+  </si>
+  <si>
+    <t>Internet</t>
   </si>
   <si>
     <t>Rådhustorvet 7, 3520 Farum</t>
@@ -191,10 +180,7 @@
     <t>12-8915C</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Kontorer
-                Kontor
-            </t>
+    <t>Kontorer, Kontor</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -223,20 +209,10 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Glasparti
-                Madlavning
-                Parkeringsforhold
-                Toiletter
-                Køkken
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Elevator
-                Opvaskemaskine
-            </t>
+    <t>Glasparti, Madlavning, Parkeringsforhold, Toiletter, Køkken, Kontor</t>
+  </si>
+  <si>
+    <t>Elevator, Opvaskemaskine</t>
   </si>
   <si>
     <t>Krondalvej 8, 2610 Rødovre</t>
@@ -277,11 +253,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Parkeringsmulighed
-                Toiletter
-                Køkken
-            </t>
+    <t>Parkeringsmulighed, Toiletter, Køkken</t>
   </si>
   <si>
     <t>Scandiagade 8, 2450 København SV</t>
@@ -322,21 +294,10 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Fitnessrum
-                Kantine
-                Tekøkken
-                Parkering
-                Plankegulv
-                Toiletter
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Elevator
-                Køl
-                Ventilation
-            </t>
+    <t>Fitnessrum, Kantine, Tekøkken, Parkering, Plankegulv, Toiletter</t>
+  </si>
+  <si>
+    <t>Elevator, Køl, Ventilation</t>
   </si>
   <si>
     <t>DETAILHANDEL/BUTIK TIL LEJE</t>
@@ -389,14 +350,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Badeværelse
-                Glasparti
-                Toilet
-                Kælderlokale
-                Parkering
-                Køkken
-            </t>
+    <t>Badeværelse, Glasparti, Toilet, Kælderlokale, Parkering, Køkken</t>
   </si>
   <si>
     <t>Odeons Kvarter 19, 5000 Odense C</t>
@@ -443,23 +397,10 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Altan
-                Depot
-                Kantine
-                Mødefaciliteter
-                Parkeringskælder
-                Storrumskontor
-                Toiletter
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Klimaanlæg
-                Elevator
-                Tv
-            </t>
+    <t>Altan, Depot, Kantine, Mødefaciliteter, Parkeringskælder, Storrumskontor, Toiletter, Kontor</t>
+  </si>
+  <si>
+    <t>Klimaanlæg, Elevator, Tv</t>
   </si>
   <si>
     <t>Kærvej 12, 2970 Hørsholm</t>
@@ -474,9 +415,7 @@
     <t>L-400252</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Lager
-            </t>
+    <t>Lager</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -505,15 +444,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Toilet
-                Kantine
-                Kælder
-                Parkering
-                Køkken
-                Lager
-                Kontor
-            </t>
+    <t>Toilet, Kantine, Kælder, Parkering, Køkken, Lager, Kontor</t>
   </si>
   <si>
     <t xml:space="preserve"> 709 m²</t>
@@ -522,9 +453,7 @@
     <t>29804</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Kontor
-            </t>
+    <t>Kontor</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -597,11 +526,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Lagerfacilitet
-                Parkering
-                Kontor
-            </t>
+    <t>Lagerfacilitet, Parkering, Kontor</t>
   </si>
   <si>
     <t>Ro's Have 12, 4000 Roskilde</t>
@@ -616,10 +541,7 @@
     <t>20823221</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Butik
-                Butikker
-            </t>
+    <t>Butik, Butikker</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -648,15 +570,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Glasparti
-                Toilet
-                Parkeringsplads
-                Port
-                Køkken
-                Lager
-                Kontor
-            </t>
+    <t>Glasparti, Toilet, Parkeringsplads, Port, Køkken, Lager, Kontor</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -687,10 +601,7 @@
     <t>710010</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Lager
-                Lagerejendom
-            </t>
+    <t>Lager, Lagerejendom</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -719,13 +630,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Betongulv
-                Hall
-                Saddeltag
-                Port
-                Lager
-            </t>
+    <t>Betongulv, Hall, Saddeltag, Port, Lager</t>
   </si>
   <si>
     <t>Strandgade 56, 1401 København K</t>
@@ -766,14 +671,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Toilet
-                Loungeområde
-                Parkering
-                Trægulve
-                Køkken
-                Kontor
-            </t>
+    <t>Toilet, Loungeområde, Parkering, Trægulve, Køkken, Kontor</t>
   </si>
   <si>
     <t>Prags Boulevard 49B, 2300 København S</t>
@@ -814,14 +712,10 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Parkering
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Personelevator
-            </t>
+    <t>Parkering</t>
+  </si>
+  <si>
+    <t>Personelevator</t>
   </si>
   <si>
     <t>Stejlhøj 28, 4400 Kalundborg</t>
@@ -836,9 +730,7 @@
     <t>2018409</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Butik
-            </t>
+    <t>Butik</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -867,9 +759,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Port
-            </t>
+    <t>Port</t>
   </si>
   <si>
     <t xml:space="preserve"> 499 m²</t>
@@ -916,10 +806,7 @@
     <t>17673</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Værksted
-                Lager
-            </t>
+    <t>Værksted, Lager</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -948,14 +835,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Garage
-                Toilet
-                Parkeringsplads
-                Køkken
-                Lager
-                Kontor
-            </t>
+    <t>Garage, Toilet, Parkeringsplads, Køkken, Lager, Kontor</t>
   </si>
   <si>
     <t>Havnepladsen 30, 9900 Frederikshavn</t>
@@ -970,10 +850,7 @@
     <t>010923-1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Lagerbygning
-                Lager
-            </t>
+    <t>Lagerbygning, Lager</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1002,16 +879,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Omklædning
-                Toilet
-                Kantine
-                Læsserampe
-                Port
-                Køkken
-                Lager
-                Kontor
-            </t>
+    <t>Omklædning, Toilet, Kantine, Læsserampe, Port, Køkken, Lager, Kontor</t>
   </si>
   <si>
     <t>HOTEL &amp; RESTAURANT TIL LEJE</t>
@@ -1032,9 +900,7 @@
     <t xml:space="preserve">Hotel &amp; Restaurant </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Restaurant
-            </t>
+    <t>Restaurant</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1063,22 +929,10 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Facadeparti
-                Glasfacade
-                Toilet
-                Lagerfacilitet
-                Køkken
-                Kontor
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Kølerum
-                Køleskab
-                Udsugning
-                Ventilation
-            </t>
+    <t>Facadeparti, Glasfacade, Toilet, Lagerfacilitet, Køkken, Kontor</t>
+  </si>
+  <si>
+    <t>Kølerum, Køleskab, Udsugning, Ventilation</t>
   </si>
   <si>
     <t>GRUNDE TIL LEJE</t>
@@ -1125,10 +979,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Minigolf
-                Sauna
-            </t>
+    <t>Minigolf, Sauna</t>
   </si>
   <si>
     <t>Nørregade 6, 4100 Ringsted</t>
@@ -1156,12 +1007,7 @@
               </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Baggård
-                Kælder
-                Parkeringsareal
-                Storrumskontor
-            </t>
+    <t>Baggård, Kælder, Parkeringsareal, Storrumskontor</t>
   </si>
   <si>
     <t>Storebælts Erhvervspark 3, 4220 Korsør</t>
@@ -1176,9 +1022,7 @@
     <t>474012964</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Domicil
-            </t>
+    <t>Domicil</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1207,22 +1051,10 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Cykelskur
-                Kantine
-                Kælder
-                Køkkenfacilitet
-                Møderum
-                Parkering
-                Reception
-                Tegltag
-                Toiletfaciliteter
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Elevator
-            </t>
+    <t>Cykelskur, Kantine, Kælder, Køkkenfacilitet, Møderum, Parkering, Reception, Tegltag, Toiletfaciliteter</t>
+  </si>
+  <si>
+    <t>Elevator</t>
   </si>
   <si>
     <t>Sandtoften 10, 2820 Gentofte</t>
@@ -1263,14 +1095,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Gård
-                Mødelokale
-                Parkering
-                Toiletter
-                Køkken
-                Kontor
-            </t>
+    <t>Gård, Mødelokale, Parkering, Toiletter, Køkken, Kontor</t>
   </si>
   <si>
     <t>Velbeliggende flotte kontorlejemål i oprindelig industristil</t>
@@ -1346,17 +1171,7 @@
             </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Balkon
-                Indgangsparti
-                Kantineområde
-                Tekøkken
-                Mødecenter
-                Parkering
-                Storrumskontor
-                Toiletter
-                Kontor
-            </t>
+    <t>Balkon, Indgangsparti, Kantineområde, Tekøkken, Mødecenter, Parkering, Storrumskontor, Toiletter, Kontor</t>
   </si>
 </sst>
 </file>

--- a/leje.xlsx
+++ b/leje.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="218">
   <si>
     <t>tag</t>
   </si>
@@ -61,8 +61,7 @@
     <t xml:space="preserve"> 70 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-            </t>
+    <t/>
   </si>
   <si>
     <t>H-17-70</t>
@@ -71,33 +70,10 @@
     <t xml:space="preserve">Lager &amp; Produktion </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Årlig leje
-                40.800,-
-                Årlig leje inkl. drift i alt kr.
-                43.200,-
-                Md. leje inkl. drift i alt kr.
-                3.600,-
-                Årlig leje inkl. drift pr. m²
-                617,-
-                Årlige driftsudgifter kr.
-                2.400,-
-                Årlige driftsudgifter pr. m²
-                34,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              70 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Årlig leje 40.800,- Årlig leje inkl. drift i alt kr. 43.200,- Md. leje inkl. drift i alt kr. 3.600,- Årlig leje inkl. drift pr. m² 617,- Årlige driftsudgifter kr. 2.400,- Årlige driftsudgifter pr. m² 34,-</t>
+  </si>
+  <si>
+    <t>Etage areal 70 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Toilet, Lagerlokale</t>
@@ -106,6 +82,39 @@
     <t>KONTOR TIL LEJE</t>
   </si>
   <si>
+    <t>Classensgade 37, 2100 København Ø</t>
+  </si>
+  <si>
+    <t>95 m2 kontor/klinik i stueplan + 45 m2 lager i kælder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 95 m²</t>
+  </si>
+  <si>
+    <t>D Energimærke D</t>
+  </si>
+  <si>
+    <t>21024542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontor </t>
+  </si>
+  <si>
+    <t>Klinikrum, Kontor</t>
+  </si>
+  <si>
+    <t>Årlig leje 148.500,- Årlig leje inkl. drift i alt kr. 148.500,- Md. leje inkl. drift i alt kr. 12.375,- Årlig leje inkl. drift pr. m² 1.563,- Årlige driftsudgifter kr. 0,- Årlige driftsudgifter pr. m² 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 95 m² Sekundært areal 45 m² Grund areal 0 m²</t>
+  </si>
+  <si>
+    <t>Arkiv, Toilet, Indgangsparti, Spiseplads, Kælder, Parkering, Køkken, Lager, Kontor</t>
+  </si>
+  <si>
+    <t>Dørtelefonanlæg, Fjernvarme</t>
+  </si>
+  <si>
     <t>Stæremosen 57, 3250 Gilleleje</t>
   </si>
   <si>
@@ -115,45 +124,16 @@
     <t xml:space="preserve"> 42 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                  D
-                    Energimærke D
-            </t>
-  </si>
-  <si>
     <t>12-9041</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontor </t>
-  </si>
-  <si>
     <t>Kontorfællesskab, Kontorplads</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                48.720,-
-                Årlig leje inkl. drift i alt kr.
-                48.720,-
-                Md. leje inkl. drift i alt kr.
-                4.060,-
-                Årlig leje inkl. drift pr. m²
-                1.160,-
-                Årlige driftsudgifter kr.
-                0,-
-                Årlige driftsudgifter pr. m²
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              42 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Årlig leje 48.720,- Årlig leje inkl. drift i alt kr. 48.720,- Md. leje inkl. drift i alt kr. 4.060,- Årlig leje inkl. drift pr. m² 1.160,- Årlige driftsudgifter kr. 0,- Årlige driftsudgifter pr. m² 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 42 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Lounge, Mødefaciliteter</t>
@@ -171,10 +151,7 @@
     <t xml:space="preserve"> 26 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                  B
-                    Energimærke B
-            </t>
+    <t>B Energimærke B</t>
   </si>
   <si>
     <t>12-8915C</t>
@@ -183,30 +160,10 @@
     <t>Kontorer, Kontor</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                37.466,-
-                Årlig leje inkl. drift i alt kr.
-                37.466,-
-                Md. leje inkl. drift i alt kr.
-                3.122,-
-                Årlig leje inkl. drift pr. m²
-                1.430,-
-                Årlige driftsudgifter kr.
-                0,-
-                Årlige driftsudgifter pr. m²
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              26 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Årlig leje 37.466,- Årlig leje inkl. drift i alt kr. 37.466,- Md. leje inkl. drift i alt kr. 3.122,- Årlig leje inkl. drift pr. m² 1.430,- Årlige driftsudgifter kr. 0,- Årlige driftsudgifter pr. m² 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 26 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Glasparti, Madlavning, Parkeringsforhold, Toiletter, Køkken, Kontor</t>
@@ -227,30 +184,10 @@
     <t>L-400253</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                135.000,-
-                Årlig leje inkl. drift i alt kr.
-                148.500,-
-                Md. leje inkl. drift i alt kr.
-                12.375,-
-                Årlig leje inkl. drift pr. m²
-                660,-
-                Årlige driftsudgifter kr.
-                13.500,-
-                Årlige driftsudgifter pr. m²
-                60,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              225 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Årlig leje 135.000,- Årlig leje inkl. drift i alt kr. 148.500,- Md. leje inkl. drift i alt kr. 12.375,- Årlig leje inkl. drift pr. m² 660,- Årlige driftsudgifter kr. 13.500,- Årlige driftsudgifter pr. m² 60,-</t>
+  </si>
+  <si>
+    <t>Etage areal 225 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Parkeringsmulighed, Toiletter, Køkken</t>
@@ -268,30 +205,10 @@
     <t>40-3</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                8.683.900,-
-                Årlig leje inkl. drift i alt kr.
-                10.247.002,-
-                Md. leje inkl. drift i alt kr.
-                853.917,-
-                Årlig leje inkl. drift pr. m²
-                2.183,-
-                Årlige driftsudgifter kr.
-                1.563.102,-
-                Årlige driftsudgifter pr. m²
-                333,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              4694 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Årlig leje 8.683.900,- Årlig leje inkl. drift i alt kr. 10.247.002,- Md. leje inkl. drift i alt kr. 853.917,- Årlig leje inkl. drift pr. m² 2.183,- Årlige driftsudgifter kr. 1.563.102,- Årlige driftsudgifter pr. m² 333,-</t>
+  </si>
+  <si>
+    <t>Etage areal 4694 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Fitnessrum, Kantine, Tekøkken, Parkering, Plankegulv, Toiletter</t>
@@ -312,10 +229,7 @@
     <t xml:space="preserve"> 90 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                  C
-                    Energimærke C
-            </t>
+    <t>C Energimærke C</t>
   </si>
   <si>
     <t>29924</t>
@@ -324,30 +238,10 @@
     <t xml:space="preserve">Detailhandel/butik </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                85.500,-
-                Årlig leje inkl. drift i alt kr.
-                85.500,-
-                Md. leje inkl. drift i alt kr.
-                7.125,-
-                Årlig leje inkl. drift pr. m²
-                950,-
-                Årlige driftsudgifter kr.
-                0,-
-                Årlige driftsudgifter pr. m²
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              90 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Årlig leje 85.500,- Årlig leje inkl. drift i alt kr. 85.500,- Md. leje inkl. drift i alt kr. 7.125,- Årlig leje inkl. drift pr. m² 950,- Årlige driftsudgifter kr. 0,- Årlige driftsudgifter pr. m² 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 90 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Badeværelse, Glasparti, Toilet, Kælderlokale, Parkering, Køkken</t>
@@ -362,39 +256,16 @@
     <t xml:space="preserve"> 683 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                  A2010
-                    Energimærke A2010
-            </t>
+    <t>A2010 Energimærke A2010</t>
   </si>
   <si>
     <t>29805</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                853.750,-
-                Årlig leje inkl. drift i alt kr.
-                994.163,-
-                Md. leje inkl. drift i alt kr.
-                82.847,-
-                Årlig leje inkl. drift pr. m²
-                1.456,-
-                Årlige driftsudgifter kr.
-                140.413,-
-                Årlige driftsudgifter pr. m²
-                206,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              683 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Årlig leje 853.750,- Årlig leje inkl. drift i alt kr. 994.163,- Md. leje inkl. drift i alt kr. 82.847,- Årlig leje inkl. drift pr. m² 1.456,- Årlige driftsudgifter kr. 140.413,- Årlige driftsudgifter pr. m² 206,-</t>
+  </si>
+  <si>
+    <t>Etage areal 683 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Altan, Depot, Kantine, Mødefaciliteter, Parkeringskælder, Storrumskontor, Toiletter, Kontor</t>
@@ -418,30 +289,10 @@
     <t>Lager</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                1.270.000,-
-                Årlig leje inkl. drift i alt kr.
-                1.506.000,-
-                Md. leje inkl. drift i alt kr.
-                125.500,-
-                Årlig leje inkl. drift pr. m²
-                814,-
-                Årlige driftsudgifter kr.
-                236.000,-
-                Årlige driftsudgifter pr. m²
-                128,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              1850 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Årlig leje 1.270.000,- Årlig leje inkl. drift i alt kr. 1.506.000,- Md. leje inkl. drift i alt kr. 125.500,- Årlig leje inkl. drift pr. m² 814,- Årlige driftsudgifter kr. 236.000,- Årlige driftsudgifter pr. m² 128,-</t>
+  </si>
+  <si>
+    <t>Etage areal 1850 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Toilet, Kantine, Kælder, Parkering, Køkken, Lager, Kontor</t>
@@ -456,30 +307,10 @@
     <t>Kontor</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                850.800,-
-                Årlig leje inkl. drift i alt kr.
-                994.296,-
-                Md. leje inkl. drift i alt kr.
-                82.858,-
-                Årlig leje inkl. drift pr. m²
-                1.402,-
-                Årlige driftsudgifter kr.
-                143.496,-
-                Årlige driftsudgifter pr. m²
-                202,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              709 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Årlig leje 850.800,- Årlig leje inkl. drift i alt kr. 994.296,- Md. leje inkl. drift i alt kr. 82.858,- Årlig leje inkl. drift pr. m² 1.402,- Årlige driftsudgifter kr. 143.496,- Årlige driftsudgifter pr. m² 202,-</t>
+  </si>
+  <si>
+    <t>Etage areal 709 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Dalumvej 22, kælder, 5250 Odense SV</t>
@@ -491,39 +322,16 @@
     <t xml:space="preserve"> 295 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                  A2
-                    Energimærke A2
-            </t>
+    <t>A2 Energimærke A2</t>
   </si>
   <si>
     <t>C-013017</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                126.000,-
-                Årlig leje inkl. drift i alt kr.
-                128.000,-
-                Md. leje inkl. drift i alt kr.
-                10.667,-
-                Årlig leje inkl. drift pr. m²
-                434,-
-                Årlige driftsudgifter kr.
-                2.000,-
-                Årlige driftsudgifter pr. m²
-                7,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              295 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Årlig leje 126.000,- Årlig leje inkl. drift i alt kr. 128.000,- Md. leje inkl. drift i alt kr. 10.667,- Årlig leje inkl. drift pr. m² 434,- Årlige driftsudgifter kr. 2.000,- Årlige driftsudgifter pr. m² 7,-</t>
+  </si>
+  <si>
+    <t>Etage areal 295 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Lagerfacilitet, Parkering, Kontor</t>
@@ -544,33 +352,58 @@
     <t>Butik, Butikker</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                1.110.000,-
-                Årlig leje inkl. drift i alt kr.
-                1.314.773,-
-                Md. leje inkl. drift i alt kr.
-                109.564,-
-                Årlig leje inkl. drift pr. m²
-                1.421,-
-                Årlige driftsudgifter kr.
-                204.773,-
-                Årlige driftsudgifter pr. m²
-                221,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              925 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Årlig leje 1.110.000,- Årlig leje inkl. drift i alt kr. 1.314.773,- Md. leje inkl. drift i alt kr. 109.564,- Årlig leje inkl. drift pr. m² 1.421,- Årlige driftsudgifter kr. 204.773,- Årlige driftsudgifter pr. m² 221,-</t>
+  </si>
+  <si>
+    <t>Etage areal 925 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Glasparti, Toilet, Parkeringsplads, Port, Køkken, Lager, Kontor</t>
+  </si>
+  <si>
+    <t>Sindbjerglundvej 10, 7100 Vejle</t>
+  </si>
+  <si>
+    <t>Lagerejendom i Lindved tæt på motorvej</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1713 m²</t>
+  </si>
+  <si>
+    <t>710010</t>
+  </si>
+  <si>
+    <t>Lager, Lagerejendom</t>
+  </si>
+  <si>
+    <t>Årlig leje 325.470,- Årlig leje inkl. drift i alt kr. 325.470,- Md. leje inkl. drift i alt kr. 27.123,- Årlig leje inkl. drift pr. m² 190,- Årlige driftsudgifter kr. 0,- Årlige driftsudgifter pr. m² 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 1713 m² Sekundært areal 0 m² Grund areal 0 m²</t>
+  </si>
+  <si>
+    <t>Betongulv, Hall, Saddeltag, Port, Lager</t>
+  </si>
+  <si>
+    <t>Strandgade 56, 1401 København K</t>
+  </si>
+  <si>
+    <t>Pakhuskontor med kvalitet og sjæl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 340 m²</t>
+  </si>
+  <si>
+    <t>23618</t>
+  </si>
+  <si>
+    <t>Årlig leje 756.500,- Årlig leje inkl. drift i alt kr. 756.500,- Md. leje inkl. drift i alt kr. 63.042,- Årlig leje inkl. drift pr. m² 2.225,- Årlige driftsudgifter kr. 0,- Årlige driftsudgifter pr. m² 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 340 m² Sekundært areal 0 m² Grund areal 0 m²</t>
+  </si>
+  <si>
+    <t>Toilet, Loungeområde, Parkering, Trægulve, Køkken, Kontor</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -589,91 +422,6 @@
     <t xml:space="preserve">Kontorhotel </t>
   </si>
   <si>
-    <t>Sindbjerglundvej 10, 7100 Vejle</t>
-  </si>
-  <si>
-    <t>Lagerejendom i Lindved tæt på motorvej</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1713 m²</t>
-  </si>
-  <si>
-    <t>710010</t>
-  </si>
-  <si>
-    <t>Lager, Lagerejendom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Årlig leje
-                325.470,-
-                Årlig leje inkl. drift i alt kr.
-                325.470,-
-                Md. leje inkl. drift i alt kr.
-                27.123,-
-                Årlig leje inkl. drift pr. m²
-                190,-
-                Årlige driftsudgifter kr.
-                0,-
-                Årlige driftsudgifter pr. m²
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              1713 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
-  </si>
-  <si>
-    <t>Betongulv, Hall, Saddeltag, Port, Lager</t>
-  </si>
-  <si>
-    <t>Strandgade 56, 1401 København K</t>
-  </si>
-  <si>
-    <t>Pakhuskontor med kvalitet og sjæl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 340 m²</t>
-  </si>
-  <si>
-    <t>23618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Årlig leje
-                756.500,-
-                Årlig leje inkl. drift i alt kr.
-                756.500,-
-                Md. leje inkl. drift i alt kr.
-                63.042,-
-                Årlig leje inkl. drift pr. m²
-                2.225,-
-                Årlige driftsudgifter kr.
-                0,-
-                Årlige driftsudgifter pr. m²
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              340 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
-  </si>
-  <si>
-    <t>Toilet, Loungeområde, Parkering, Trægulve, Køkken, Kontor</t>
-  </si>
-  <si>
     <t>Prags Boulevard 49B, 2300 København S</t>
   </si>
   <si>
@@ -686,30 +434,10 @@
     <t>5-201- 4. tv.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                595.372,-
-                Årlig leje inkl. drift i alt kr.
-                689.246,-
-                Md. leje inkl. drift i alt kr.
-                57.437,-
-                Årlig leje inkl. drift pr. m²
-                1.373,-
-                Årlige driftsudgifter kr.
-                93.874,-
-                Årlige driftsudgifter pr. m²
-                187,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              502 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Årlig leje 595.372,- Årlig leje inkl. drift i alt kr. 689.246,- Md. leje inkl. drift i alt kr. 57.437,- Årlig leje inkl. drift pr. m² 1.373,- Årlige driftsudgifter kr. 93.874,- Årlige driftsudgifter pr. m² 187,-</t>
+  </si>
+  <si>
+    <t>Etage areal 502 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Parkering</t>
@@ -733,30 +461,10 @@
     <t>Butik</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                950.000,-
-                Årlig leje inkl. drift i alt kr.
-                950.000,-
-                Md. leje inkl. drift i alt kr.
-                79.167,-
-                Årlig leje inkl. drift pr. m²
-                1.049,-
-                Årlige driftsudgifter kr.
-                0,-
-                Årlige driftsudgifter pr. m²
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              906 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Årlig leje 950.000,- Årlig leje inkl. drift i alt kr. 950.000,- Md. leje inkl. drift i alt kr. 79.167,- Årlig leje inkl. drift pr. m² 1.049,- Årlige driftsudgifter kr. 0,- Årlige driftsudgifter pr. m² 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 906 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Port</t>
@@ -768,30 +476,10 @@
     <t>5-201- 4. th.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                698.600,-
-                Årlig leje inkl. drift i alt kr.
-                791.913,-
-                Md. leje inkl. drift i alt kr.
-                65.993,-
-                Årlig leje inkl. drift pr. m²
-                1.587,-
-                Årlige driftsudgifter kr.
-                93.313,-
-                Årlige driftsudgifter pr. m²
-                187,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              499 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Årlig leje 698.600,- Årlig leje inkl. drift i alt kr. 791.913,- Md. leje inkl. drift i alt kr. 65.993,- Årlig leje inkl. drift pr. m² 1.587,- Årlige driftsudgifter kr. 93.313,- Årlige driftsudgifter pr. m² 187,-</t>
+  </si>
+  <si>
+    <t>Etage areal 499 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Dalsagervej 25, 9850 Hirtshals</t>
@@ -809,30 +497,10 @@
     <t>Værksted, Lager</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                94.050,-
-                Årlig leje inkl. drift i alt kr.
-                94.050,-
-                Md. leje inkl. drift i alt kr.
-                7.838,-
-                Årlig leje inkl. drift pr. m²
-                475,-
-                Årlige driftsudgifter kr.
-                0,-
-                Årlige driftsudgifter pr. m²
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              198 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              5067 m²
-            </t>
+    <t>Årlig leje 94.050,- Årlig leje inkl. drift i alt kr. 94.050,- Md. leje inkl. drift i alt kr. 7.838,- Årlig leje inkl. drift pr. m² 475,- Årlige driftsudgifter kr. 0,- Årlige driftsudgifter pr. m² 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 198 m² Sekundært areal 0 m² Grund areal 5067 m²</t>
   </si>
   <si>
     <t>Garage, Toilet, Parkeringsplads, Køkken, Lager, Kontor</t>
@@ -853,30 +521,10 @@
     <t>Lagerbygning, Lager</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                122.400,-
-                Årlig leje inkl. drift i alt kr.
-                122.400,-
-                Md. leje inkl. drift i alt kr.
-                10.200,-
-                Årlig leje inkl. drift pr. m²
-                400,-
-                Årlige driftsudgifter kr.
-                0,-
-                Årlige driftsudgifter pr. m²
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              306 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Årlig leje 122.400,- Årlig leje inkl. drift i alt kr. 122.400,- Md. leje inkl. drift i alt kr. 10.200,- Årlig leje inkl. drift pr. m² 400,- Årlige driftsudgifter kr. 0,- Årlige driftsudgifter pr. m² 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 306 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Omklædning, Toilet, Kantine, Læsserampe, Port, Køkken, Lager, Kontor</t>
@@ -903,30 +551,10 @@
     <t>Restaurant</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                1.197.000,-
-                Årlig leje inkl. drift i alt kr.
-                1.235.000,-
-                Md. leje inkl. drift i alt kr.
-                102.917,-
-                Årlig leje inkl. drift pr. m²
-                3.095,-
-                Årlige driftsudgifter kr.
-                38.000,-
-                Årlige driftsudgifter pr. m²
-                95,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              399 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Årlig leje 1.197.000,- Årlig leje inkl. drift i alt kr. 1.235.000,- Md. leje inkl. drift i alt kr. 102.917,- Årlig leje inkl. drift pr. m² 3.095,- Årlige driftsudgifter kr. 38.000,- Årlige driftsudgifter pr. m² 95,-</t>
+  </si>
+  <si>
+    <t>Etage areal 399 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Facadeparti, Glasfacade, Toilet, Lagerfacilitet, Køkken, Kontor</t>
@@ -953,30 +581,10 @@
     <t xml:space="preserve">Grunde </t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                124.400,-
-                Årlig leje inkl. drift i alt kr.
-                124.400,-
-                Md. leje inkl. drift i alt kr.
-                10.367,-
-                Årlig leje inkl. drift pr. m²
-                0,-
-                Årlige driftsudgifter kr.
-                0,-
-                Årlige driftsudgifter pr. m²
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              0 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              1250 m²
-            </t>
+    <t>Årlig leje 124.400,- Årlig leje inkl. drift i alt kr. 124.400,- Md. leje inkl. drift i alt kr. 10.367,- Årlig leje inkl. drift pr. m² 0,- Årlige driftsudgifter kr. 0,- Årlige driftsudgifter pr. m² 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 0 m² Sekundært areal 0 m² Grund areal 1250 m²</t>
   </si>
   <si>
     <t>Minigolf, Sauna</t>
@@ -991,20 +599,7 @@
     <t>20523625</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                426.700,-
-                Årlig leje inkl. drift i alt kr.
-                426.700,-
-                Md. leje inkl. drift i alt kr.
-                35.558,-
-                Årlig leje inkl. drift pr. m²
-                850,-
-                Årlige driftsudgifter kr.
-                0,-
-                Årlige driftsudgifter pr. m²
-                0,-
-              </t>
+    <t>Årlig leje 426.700,- Årlig leje inkl. drift i alt kr. 426.700,- Md. leje inkl. drift i alt kr. 35.558,- Årlig leje inkl. drift pr. m² 850,- Årlige driftsudgifter kr. 0,- Årlige driftsudgifter pr. m² 0,-</t>
   </si>
   <si>
     <t>Baggård, Kælder, Parkeringsareal, Storrumskontor</t>
@@ -1025,30 +620,10 @@
     <t>Domicil</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                2.104.900,-
-                Årlig leje inkl. drift i alt kr.
-                2.285.320,-
-                Md. leje inkl. drift i alt kr.
-                190.443,-
-                Årlig leje inkl. drift pr. m²
-                760,-
-                Årlige driftsudgifter kr.
-                180.420,-
-                Årlige driftsudgifter pr. m²
-                60,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              3007 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              9003 m²
-            </t>
+    <t>Årlig leje 2.104.900,- Årlig leje inkl. drift i alt kr. 2.285.320,- Md. leje inkl. drift i alt kr. 190.443,- Årlig leje inkl. drift pr. m² 760,- Årlige driftsudgifter kr. 180.420,- Årlige driftsudgifter pr. m² 60,-</t>
+  </si>
+  <si>
+    <t>Etage areal 3007 m² Sekundært areal 0 m² Grund areal 9003 m²</t>
   </si>
   <si>
     <t>Cykelskur, Kantine, Kælder, Køkkenfacilitet, Møderum, Parkering, Reception, Tegltag, Toiletfaciliteter</t>
@@ -1069,30 +644,10 @@
     <t>260998070</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                64.000,-
-                Årlig leje inkl. drift i alt kr.
-                64.000,-
-                Md. leje inkl. drift i alt kr.
-                5.333,-
-                Årlig leje inkl. drift pr. m²
-                2.000,-
-                Årlige driftsudgifter kr.
-                0,-
-                Årlige driftsudgifter pr. m²
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              32 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
+    <t>Årlig leje 64.000,- Årlig leje inkl. drift i alt kr. 64.000,- Md. leje inkl. drift i alt kr. 5.333,- Årlig leje inkl. drift pr. m² 2.000,- Årlige driftsudgifter kr. 0,- Årlige driftsudgifter pr. m² 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 32 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
   <si>
     <t>Gård, Mødelokale, Parkering, Toiletter, Køkken, Kontor</t>
@@ -1107,71 +662,10 @@
     <t>260998069</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                Årlig leje
-                24.000,-
-                Årlig leje inkl. drift i alt kr.
-                24.000,-
-                Md. leje inkl. drift i alt kr.
-                2.000,-
-                Årlig leje inkl. drift pr. m²
-                2.000,-
-                Årlige driftsudgifter kr.
-                0,-
-                Årlige driftsudgifter pr. m²
-                0,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              12 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
-  </si>
-  <si>
-    <t>Christian IX's Gade 10, 1111 København K</t>
-  </si>
-  <si>
-    <t>Charmerende kontor midt i byens centrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 613 m²</t>
-  </si>
-  <si>
-    <t>23633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Årlig leje
-                1.118.725,-
-                Årlig leje inkl. drift i alt kr.
-                1.409.287,-
-                Md. leje inkl. drift i alt kr.
-                117.441,-
-                Årlig leje inkl. drift pr. m²
-                2.299,-
-                Årlige driftsudgifter kr.
-                290.562,-
-                Årlige driftsudgifter pr. m²
-                474,-
-              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-              Etage areal
-              613 m²
-              Sekundært areal
-              0 m²
-              Grund areal
-              0 m²
-            </t>
-  </si>
-  <si>
-    <t>Balkon, Indgangsparti, Kantineområde, Tekøkken, Mødecenter, Parkering, Storrumskontor, Toiletter, Kontor</t>
+    <t>Årlig leje 24.000,- Årlig leje inkl. drift i alt kr. 24.000,- Md. leje inkl. drift i alt kr. 2.000,- Årlig leje inkl. drift pr. m² 2.000,- Årlige driftsudgifter kr. 0,- Årlige driftsudgifter pr. m² 0,-</t>
+  </si>
+  <si>
+    <t>Etage areal 12 m² Sekundært areal 0 m² Grund areal 0 m²</t>
   </si>
 </sst>
 </file>
@@ -1612,121 +1106,121 @@
         <v>18</v>
       </c>
       <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>40</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>42</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>46</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
         <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
@@ -1738,109 +1232,109 @@
         <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>62</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
         <v>64</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>65</v>
       </c>
-      <c r="G7" t="s">
+      <c r="K7" t="s">
         <v>66</v>
       </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>67</v>
-      </c>
-      <c r="J7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
         <v>70</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>72</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>73</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>74</v>
       </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
         <v>75</v>
@@ -1852,126 +1346,126 @@
         <v>77</v>
       </c>
       <c r="L8" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
         <v>79</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>80</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>81</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
         <v>83</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>84</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>85</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>86</v>
-      </c>
-      <c r="L9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>100</v>
@@ -1983,16 +1477,16 @@
         <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
         <v>105</v>
@@ -2004,45 +1498,45 @@
         <v>107</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
         <v>108</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>109</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>110</v>
       </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
         <v>111</v>
       </c>
       <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s">
         <v>112</v>
       </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2050,118 +1544,118 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J15" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>136</v>
@@ -2179,98 +1673,98 @@
         <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
         <v>140</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>141</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>142</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>143</v>
-      </c>
-      <c r="L17" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J18" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="L19" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2308,88 +1802,88 @@
         <v>163</v>
       </c>
       <c r="L20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
         <v>164</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>165</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>166</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
         <v>167</v>
       </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
         <v>168</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>169</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>170</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>171</v>
       </c>
-      <c r="J21" t="s">
-        <v>172</v>
-      </c>
-      <c r="K21" t="s">
-        <v>173</v>
-      </c>
       <c r="L21" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" t="s">
         <v>175</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
         <v>176</v>
       </c>
-      <c r="C22" t="s">
+      <c r="G22" t="s">
         <v>177</v>
       </c>
-      <c r="D22" t="s">
+      <c r="H22" t="s">
         <v>178</v>
       </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
         <v>179</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J22" t="s">
         <v>180</v>
       </c>
-      <c r="H22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>181</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>182</v>
-      </c>
-      <c r="K22" t="s">
-        <v>183</v>
-      </c>
-      <c r="L22" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
         <v>184</v>
@@ -2398,95 +1892,95 @@
         <v>185</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J23" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="K23" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D24" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J24" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="K24" t="s">
         <v>196</v>
       </c>
       <c r="L24" t="s">
-        <v>197</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" t="s">
         <v>198</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>199</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" t="s">
         <v>200</v>
       </c>
-      <c r="E25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s">
         <v>201</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" t="s">
-        <v>89</v>
       </c>
       <c r="I25" t="s">
         <v>202</v>
@@ -2498,83 +1992,83 @@
         <v>204</v>
       </c>
       <c r="L25" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K26" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="L26" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C27" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D27" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" t="s">
         <v>212</v>
       </c>
-      <c r="E27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" t="s">
-        <v>213</v>
-      </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" t="s">
-        <v>89</v>
-      </c>
-      <c r="I27" t="s">
-        <v>214</v>
-      </c>
-      <c r="J27" t="s">
-        <v>215</v>
-      </c>
-      <c r="K27" t="s">
-        <v>216</v>
-      </c>
       <c r="L27" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/leje.xlsx
+++ b/leje.xlsx
@@ -151,7 +151,7 @@
     <t>Kontor- eller kliniklokaler i Kolding C.</t>
   </si>
   <si>
-    <t>Klinik, Kontor, Kontorfællesskab</t>
+    <t>Kontor, Kontorfællesskab, Klinik</t>
   </si>
   <si>
     <t>Toiletter, Køkken, Kontor</t>
@@ -199,7 +199,7 @@
     <t xml:space="preserve">Andre typer </t>
   </si>
   <si>
-    <t>Restauration</t>
+    <t>Klinik</t>
   </si>
   <si>
     <t>Kælder, Parkering</t>
@@ -229,7 +229,7 @@
     <t>Moderne kontorlokaler i Dragør</t>
   </si>
   <si>
-    <t>Kontor, Klinik, Kontorer</t>
+    <t>Kontorer, Klinik, Kontor</t>
   </si>
   <si>
     <t>Glasfacade, Mødelokale, Parkering, Parketgulv, Terrasse, Toiletter, Køkken, Lager, Kontor</t>
@@ -265,7 +265,7 @@
     <t>Lagerejendom i Lindved tæt på motorvej</t>
   </si>
   <si>
-    <t>Lager, Lagerejendom</t>
+    <t>Lagerejendom, Lager</t>
   </si>
   <si>
     <t>Betongulv, Hall, Saddeltag, Port, Lager</t>
@@ -280,7 +280,7 @@
     <t>Velbeliggende lagerejendom</t>
   </si>
   <si>
-    <t>Lager, Lagerejendom, Produktionsejendom</t>
+    <t>Lager, Produktionsejendom, Lagerejendom</t>
   </si>
   <si>
     <t>Hall, Port, Lager</t>
@@ -298,7 +298,7 @@
     <t>A2015 Energimærke A2015</t>
   </si>
   <si>
-    <t>Café, Klinik, Butik</t>
+    <t>Klinik, Butik, Café</t>
   </si>
   <si>
     <t>Toilet, Tekøkken, Parkering</t>
@@ -343,7 +343,7 @@
     <t>B Energimærke B</t>
   </si>
   <si>
-    <t>Kontor, Kontorer</t>
+    <t>Kontorer, Kontor</t>
   </si>
   <si>
     <t>Fri parkering, Kantineordning, Parkering, Kontor</t>
@@ -355,7 +355,7 @@
     <t>Butikslejemål med fantastisk synlighed</t>
   </si>
   <si>
-    <t>Café, Butik</t>
+    <t>Butik, Café</t>
   </si>
   <si>
     <t>Kælder, Toiletfaciliteter</t>
@@ -788,6 +788,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="53" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="41" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="113" customWidth="1"/>
+    <col min="16" max="16" width="24" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/leje.xlsx
+++ b/leje.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="122">
   <si>
     <t>Type til leje</t>
   </si>
@@ -61,6 +61,45 @@
     <t>Teknik</t>
   </si>
   <si>
+    <t>LAGER &amp; PRODUKTION TIL LEJE</t>
+  </si>
+  <si>
+    <t>Grimhøjvej 6</t>
+  </si>
+  <si>
+    <t>Brabrand</t>
+  </si>
+  <si>
+    <t>Kontor med lager. Masser af gratis parkering</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">Lager &amp; Produktion </t>
+  </si>
+  <si>
+    <t>Lager</t>
+  </si>
+  <si>
+    <t>Gratis parkering, Toilet, Spiseplads, Parkering, Lager, Kontor</t>
+  </si>
+  <si>
+    <t>Ny industrihal under opførsel 2 km fra Aarhus C</t>
+  </si>
+  <si>
+    <t>Gratis parkering, Parkering, Port, Kontor</t>
+  </si>
+  <si>
+    <t>KONTOR TIL LEJE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontor </t>
+  </si>
+  <si>
+    <t>Kontorer, Kontor</t>
+  </si>
+  <si>
     <t>DETAILHANDEL/BUTIK TIL LEJE</t>
   </si>
   <si>
@@ -85,12 +124,6 @@
     <t>Parkeringsmulighed, Køkken</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>KONTOR TIL LEJE</t>
-  </si>
-  <si>
     <t>Skt. Clemens Stræde 9B</t>
   </si>
   <si>
@@ -100,18 +133,12 @@
     <t>E Energimærke E</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontor </t>
-  </si>
-  <si>
     <t>Kontor</t>
   </si>
   <si>
     <t>Baggård, Toilet, Tekøkken, Mødelokale, Parkeringsmulighed, Storrumskontor, Kontor</t>
   </si>
   <si>
-    <t>LAGER &amp; PRODUKTION TIL LEJE</t>
-  </si>
-  <si>
     <t>Priorparken 800-833</t>
   </si>
   <si>
@@ -121,9 +148,6 @@
     <t>Regulært og højloftet lagerlejemål ved Motorring 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Lager &amp; Produktion </t>
-  </si>
-  <si>
     <t>Kantine, Lounge, Parkeringsforhold, Port, Kontor</t>
   </si>
   <si>
@@ -205,6 +229,36 @@
     <t>Kælder, Parkering</t>
   </si>
   <si>
+    <t>Egtvedvej 1</t>
+  </si>
+  <si>
+    <t>394m² kontor med lager i Kolding N</t>
+  </si>
+  <si>
+    <t>G Energimærke G</t>
+  </si>
+  <si>
+    <t>Kontordomicil, Kontor</t>
+  </si>
+  <si>
+    <t>Arkivrum, Hanebånd, Toilet, Kontorlandskab, Lagerfacilitet, Mødelokale, Plankegulv, Port, Køkken, Lager, Kontor</t>
+  </si>
+  <si>
+    <t>Sindbjerglundvej 10</t>
+  </si>
+  <si>
+    <t>Vejle</t>
+  </si>
+  <si>
+    <t>Lagerejendom i Lindved tæt på motorvej</t>
+  </si>
+  <si>
+    <t>Lagerejendom, Lager</t>
+  </si>
+  <si>
+    <t>Betongulv, Hall, Saddeltag, Port, Lager</t>
+  </si>
+  <si>
     <t>Mossvej 16-18</t>
   </si>
   <si>
@@ -214,9 +268,6 @@
     <t>Moderne lager- og logistikterminal</t>
   </si>
   <si>
-    <t>Lager</t>
-  </si>
-  <si>
     <t>Parkeringsfaciliteter, Port, Lager, Kontor, DGNB Guld</t>
   </si>
   <si>
@@ -241,36 +292,6 @@
     <t>Tekøkken, Møderum, Toiletter, Kontor</t>
   </si>
   <si>
-    <t>Egtvedvej 1</t>
-  </si>
-  <si>
-    <t>394m² kontor med lager i Kolding N</t>
-  </si>
-  <si>
-    <t>G Energimærke G</t>
-  </si>
-  <si>
-    <t>Kontordomicil, Kontor</t>
-  </si>
-  <si>
-    <t>Arkivrum, Hanebånd, Toilet, Kontorlandskab, Lagerfacilitet, Mødelokale, Plankegulv, Port, Køkken, Lager, Kontor</t>
-  </si>
-  <si>
-    <t>Sindbjerglundvej 10</t>
-  </si>
-  <si>
-    <t>Vejle</t>
-  </si>
-  <si>
-    <t>Lagerejendom i Lindved tæt på motorvej</t>
-  </si>
-  <si>
-    <t>Lagerejendom, Lager</t>
-  </si>
-  <si>
-    <t>Betongulv, Hall, Saddeltag, Port, Lager</t>
-  </si>
-  <si>
     <t>Sylbækvej 1C</t>
   </si>
   <si>
@@ -343,9 +364,6 @@
     <t>B Energimærke B</t>
   </si>
   <si>
-    <t>Kontorer, Kontor</t>
-  </si>
-  <si>
     <t>Fri parkering, Kantineordning, Parkering, Kontor</t>
   </si>
   <si>
@@ -355,61 +373,10 @@
     <t>Butikslejemål med fantastisk synlighed</t>
   </si>
   <si>
-    <t>Butik, Café</t>
+    <t>Café, Butik</t>
   </si>
   <si>
     <t>Kælder, Toiletfaciliteter</t>
-  </si>
-  <si>
-    <t>Bavnehøjvej 11G</t>
-  </si>
-  <si>
-    <t>Silkeborg</t>
-  </si>
-  <si>
-    <t>Regulært værksted med mange muligheder</t>
-  </si>
-  <si>
-    <t>Værksted</t>
-  </si>
-  <si>
-    <t>Bad, Toilet, Omklædningsrum, Lagerlokale, Køkken</t>
-  </si>
-  <si>
-    <t>Teknikrum</t>
-  </si>
-  <si>
-    <t>Sifsgade 31, st.</t>
-  </si>
-  <si>
-    <t>Flotte lokaler med flere anvendelser</t>
-  </si>
-  <si>
-    <t>Glasfacade, Sydvendt, Kontor</t>
-  </si>
-  <si>
-    <t>Blokken 11</t>
-  </si>
-  <si>
-    <t>Birkerød</t>
-  </si>
-  <si>
-    <t>Blokken  11, , 3460</t>
-  </si>
-  <si>
-    <t>Lagerlokale</t>
-  </si>
-  <si>
-    <t>Anelystparken 39D</t>
-  </si>
-  <si>
-    <t>Tilst</t>
-  </si>
-  <si>
-    <t>Lyst kontor, gratis P-pladser</t>
-  </si>
-  <si>
-    <t>Depot, Bad, Toilet, Kantine, Ovenlysvindue, P-plads, Storrumskontor, Køkken, Kontor</t>
   </si>
 </sst>
 </file>
@@ -865,7 +832,7 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>8000</v>
+        <v>8220</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -874,7 +841,7 @@
         <v>19</v>
       </c>
       <c r="F2">
-        <v>65</v>
+        <v>430</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -886,13 +853,13 @@
         <v>22</v>
       </c>
       <c r="J2">
-        <v>162500</v>
+        <v>209000</v>
       </c>
       <c r="K2">
-        <v>37700</v>
+        <v>12000</v>
       </c>
       <c r="L2">
-        <v>65</v>
+        <v>430</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -904,45 +871,45 @@
         <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>8000</v>
+        <v>8220</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>86</v>
+        <v>330</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J3">
-        <v>107500</v>
+        <v>205000</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="L3">
-        <v>86</v>
+        <v>330</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -951,98 +918,98 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>2605</v>
+        <v>8220</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>5350</v>
+        <v>730</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J4">
-        <v>3757</v>
+        <v>375000</v>
       </c>
       <c r="K4">
-        <v>642000</v>
+        <v>12000</v>
       </c>
       <c r="L4">
-        <v>5350</v>
+        <v>730</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23734</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>1660</v>
+        <v>8220</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>267</v>
+        <v>430</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J5">
-        <v>387150</v>
+        <v>209000</v>
       </c>
       <c r="K5">
-        <v>54201</v>
+        <v>12000</v>
       </c>
       <c r="L5">
-        <v>267</v>
+        <v>430</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1051,48 +1018,48 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J6">
-        <v>156000</v>
+        <v>162500</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>37700</v>
       </c>
       <c r="L6">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1101,148 +1068,148 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P6" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C7">
-        <v>1553</v>
+        <v>8000</v>
       </c>
       <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>92</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <v>107500</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>86</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
         <v>41</v>
       </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7">
-        <v>154000</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>92</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>51</v>
-      </c>
       <c r="P7" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C8">
-        <v>1107</v>
+        <v>2605</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F8">
-        <v>396</v>
+        <v>5350</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J8">
-        <v>970200</v>
+        <v>3757</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>642000</v>
       </c>
       <c r="L8">
-        <v>396</v>
+        <v>5350</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>23734</v>
       </c>
       <c r="O8" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C9">
-        <v>5000</v>
+        <v>1660</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F9">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="J9">
-        <v>148800</v>
+        <v>387150</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>54201</v>
       </c>
       <c r="L9">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1251,48 +1218,48 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C10">
-        <v>8700</v>
+        <v>6000</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F10">
-        <v>15330</v>
+        <v>260</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J10">
-        <v>7733</v>
+        <v>156000</v>
       </c>
       <c r="K10">
-        <v>536550</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>15330</v>
+        <v>260</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1301,48 +1268,48 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C11">
-        <v>8700</v>
+        <v>1553</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F11">
-        <v>15330</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="J11">
-        <v>7733</v>
+        <v>154000</v>
       </c>
       <c r="K11">
-        <v>536550</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>15330</v>
+        <v>92</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1351,98 +1318,98 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C12">
-        <v>2791</v>
+        <v>1107</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F12">
-        <v>72</v>
+        <v>396</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="J12">
-        <v>72000</v>
+        <v>970200</v>
       </c>
       <c r="K12">
-        <v>14400</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>72</v>
+        <v>396</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1555</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P12" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C13">
-        <v>1660</v>
+        <v>5000</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="F13">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J13">
-        <v>220400</v>
+        <v>148800</v>
       </c>
       <c r="K13">
-        <v>30856</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1451,39 +1418,39 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P13" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C14">
         <v>6000</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F14">
         <v>394</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J14">
         <v>240000</v>
@@ -1501,39 +1468,39 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C15">
         <v>7100</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F15">
         <v>1713</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J15">
         <v>325470</v>
@@ -1551,48 +1518,48 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C16">
-        <v>5000</v>
+        <v>8700</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="F16">
-        <v>141</v>
+        <v>15330</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="J16">
-        <v>133200</v>
+        <v>7733</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>536550</v>
       </c>
       <c r="L16">
-        <v>141</v>
+        <v>15330</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1601,48 +1568,48 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C17">
-        <v>8230</v>
+        <v>8700</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F17">
-        <v>700</v>
+        <v>15330</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="J17">
-        <v>280000</v>
+        <v>7733</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>536550</v>
       </c>
       <c r="L17">
-        <v>700</v>
+        <v>15330</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1651,98 +1618,98 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C18">
-        <v>4000</v>
+        <v>2791</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F18">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J18">
-        <v>110200</v>
+        <v>72000</v>
       </c>
       <c r="K18">
-        <v>15580</v>
+        <v>14400</v>
       </c>
       <c r="L18">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1555</v>
       </c>
       <c r="O18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C19">
-        <v>8370</v>
+        <v>1660</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="F19">
-        <v>6416</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="J19">
-        <v>1405</v>
+        <v>220400</v>
       </c>
       <c r="K19">
-        <v>192480</v>
+        <v>30856</v>
       </c>
       <c r="L19">
-        <v>6416</v>
+        <v>152</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1751,42 +1718,42 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C20">
         <v>5000</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F20">
         <v>141</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I20" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J20">
-        <v>169200</v>
+        <v>133200</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1801,48 +1768,48 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C21">
-        <v>2770</v>
+        <v>8230</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F21">
-        <v>91</v>
+        <v>700</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="J21">
-        <v>86400</v>
+        <v>280000</v>
       </c>
       <c r="K21">
-        <v>11830</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>91</v>
+        <v>700</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1851,48 +1818,48 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C22">
-        <v>2730</v>
+        <v>4000</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F22">
-        <v>522</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J22">
-        <v>443700</v>
+        <v>110200</v>
       </c>
       <c r="K22">
-        <v>106488</v>
+        <v>15580</v>
       </c>
       <c r="L22">
-        <v>522</v>
+        <v>76</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1901,10 +1868,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -1912,37 +1879,37 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C23">
-        <v>8700</v>
+        <v>8370</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F23">
-        <v>99</v>
+        <v>6416</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
         <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="J23">
-        <v>150000</v>
+        <v>1405</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>192480</v>
       </c>
       <c r="L23">
-        <v>99</v>
+        <v>6416</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1951,48 +1918,48 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="C24">
-        <v>8600</v>
+        <v>5000</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="F24">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I24" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="J24">
-        <v>114000</v>
+        <v>169200</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2001,48 +1968,48 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="P24" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C25">
-        <v>8230</v>
+        <v>2770</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F25">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I25" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="J25">
-        <v>224400</v>
+        <v>86400</v>
       </c>
       <c r="K25">
-        <v>48620</v>
+        <v>11830</v>
       </c>
       <c r="L25">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2051,48 +2018,48 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="P25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C26">
-        <v>3460</v>
+        <v>2730</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F26">
-        <v>300</v>
+        <v>522</v>
       </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H26" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J26">
-        <v>150000</v>
+        <v>443700</v>
       </c>
       <c r="K26">
-        <v>37500</v>
+        <v>106488</v>
       </c>
       <c r="L26">
-        <v>300</v>
+        <v>522</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2101,48 +2068,48 @@
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="P26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C27">
-        <v>8381</v>
+        <v>8700</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F27">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I27" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J27">
-        <v>124704</v>
+        <v>150000</v>
       </c>
       <c r="K27">
-        <v>11900</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2151,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="P27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/leje.xlsx
+++ b/leje.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="128">
   <si>
     <t>Type til leje</t>
   </si>
@@ -61,322 +61,340 @@
     <t>Teknik</t>
   </si>
   <si>
+    <t>KONTOR TIL LEJE</t>
+  </si>
+  <si>
+    <t>Vesterbrogade 149</t>
+  </si>
+  <si>
+    <t>København V</t>
+  </si>
+  <si>
+    <t>Det ikoniske flerbrugerhus midt på Vesterbro</t>
+  </si>
+  <si>
+    <t>C Energimærke C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontor </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tekøkken, Mødecenter, Storrumskontor, Vicevært</t>
+  </si>
+  <si>
+    <t>Gasværksvej 46</t>
+  </si>
+  <si>
+    <t>Aalborg</t>
+  </si>
+  <si>
+    <t>Attraktivt kontorlejemål på central placering</t>
+  </si>
+  <si>
+    <t>B Energimærke B</t>
+  </si>
+  <si>
+    <t>Domicil</t>
+  </si>
+  <si>
+    <t>Fællesareal, Kantine, Kantineordning, Loungeområde, Mødelokale, Parkering, Toiletter, Køkken</t>
+  </si>
+  <si>
+    <t>Strandvejen 163</t>
+  </si>
+  <si>
+    <t>Hellerup</t>
+  </si>
+  <si>
+    <t>225 m² herskabeligt kontor til leje • Hellerup</t>
+  </si>
+  <si>
+    <t>Gård, Spiseplads, Mødelokale, Parkeringsplads, Reception, Toiletter, Køkken, Kontor</t>
+  </si>
+  <si>
+    <t>Rådhustorvet 1</t>
+  </si>
+  <si>
+    <t>Farum</t>
+  </si>
+  <si>
+    <t>Lyse og indbydende lokaler</t>
+  </si>
+  <si>
+    <t>Klinik, Kontorer, Kontorfællesskab, Kontor</t>
+  </si>
+  <si>
+    <t>Cykelparkering, Spisemulighed, Møderum, Parkeringsplads, Toiletter, Køkken, Kontor</t>
+  </si>
+  <si>
+    <t>DETAILHANDEL/BUTIK TIL LEJE</t>
+  </si>
+  <si>
+    <t>Falkoner Alle 46</t>
+  </si>
+  <si>
+    <t>Frederiksberg</t>
+  </si>
+  <si>
+    <t>95 m² butik til leje • Falkoner Allé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detailhandel/butik </t>
+  </si>
+  <si>
+    <t>Facadeparti, Gratis parkering, Toilet, Kælder, Parkering, Thekøkken</t>
+  </si>
+  <si>
+    <t>Læsøgade 15</t>
+  </si>
+  <si>
+    <t>Hjørnelejemål i hjertet af Øgadekvarteret</t>
+  </si>
+  <si>
+    <t>Klinik</t>
+  </si>
+  <si>
+    <t>Parkeringsmulighed, Køkken, Kontor</t>
+  </si>
+  <si>
     <t>LAGER &amp; PRODUKTION TIL LEJE</t>
   </si>
   <si>
-    <t>Grimhøjvej 6</t>
-  </si>
-  <si>
-    <t>Brabrand</t>
-  </si>
-  <si>
-    <t>Kontor med lager. Masser af gratis parkering</t>
-  </si>
-  <si>
-    <t/>
+    <t>Nyholms Alle 36B</t>
+  </si>
+  <si>
+    <t>Rødovre</t>
+  </si>
+  <si>
+    <t>267 m2 produktions- og lagerlokale</t>
   </si>
   <si>
     <t xml:space="preserve">Lager &amp; Produktion </t>
   </si>
   <si>
+    <t>Toilet, Port, Lagerlokale, Lager, Kontor</t>
+  </si>
+  <si>
+    <t>GRUNDE TIL LEJE</t>
+  </si>
+  <si>
+    <t>Bragesvej 2A</t>
+  </si>
+  <si>
+    <t>Køge</t>
+  </si>
+  <si>
+    <t>Leje af erhvervsareal i Skandinavisk Transport Center, Køge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grunde </t>
+  </si>
+  <si>
+    <t>Bragesvej 2</t>
+  </si>
+  <si>
+    <t>Lyngby Hovedgade 47</t>
+  </si>
+  <si>
+    <t>Kongens Lyngby</t>
+  </si>
+  <si>
+    <t>Velbeliggende lejemål til afståelse på Lyngby Hovedgade!</t>
+  </si>
+  <si>
+    <t>Toilet, Tekøkken, Lager</t>
+  </si>
+  <si>
+    <t>Egtvedvej 1</t>
+  </si>
+  <si>
+    <t>Kolding</t>
+  </si>
+  <si>
+    <t>394m² kontor med lager i Kolding N</t>
+  </si>
+  <si>
+    <t>G Energimærke G</t>
+  </si>
+  <si>
+    <t>Kontordomicil, Kontor</t>
+  </si>
+  <si>
+    <t>Arkivrum, Hanebånd, Toilet, Kontorlandskab, Lagerfacilitet, Mødelokale, Plankegulv, Port, Køkken, Lager, Kontor</t>
+  </si>
+  <si>
+    <t>H.C. Andersens Boulevard 38</t>
+  </si>
+  <si>
+    <t>Klassisk lejemål i historisk ejendom</t>
+  </si>
+  <si>
+    <t>E Energimærke E</t>
+  </si>
+  <si>
+    <t>Indgangsparti, Kælder, Paneler, Parkeringshus, Sildebensparketgulv</t>
+  </si>
+  <si>
+    <t>Hovvejen 114</t>
+  </si>
+  <si>
+    <t>Kalundborg</t>
+  </si>
+  <si>
+    <t>Grundstykke til leje</t>
+  </si>
+  <si>
+    <t>Brotorvet 6</t>
+  </si>
+  <si>
+    <t>Holstebro</t>
+  </si>
+  <si>
+    <t>Pæne lokaler med velkendt beliggenhed</t>
+  </si>
+  <si>
+    <t>Kontorer, Klinik, Kontor</t>
+  </si>
+  <si>
+    <t>Reception, Toiletfaciliteter, Køkken, Kontor</t>
+  </si>
+  <si>
+    <t>Hattemagervej 8A</t>
+  </si>
+  <si>
+    <t>Kontor med tilhørende lager beliggende i Håndværkerkvarteret</t>
+  </si>
+  <si>
+    <t>D Energimærke D</t>
+  </si>
+  <si>
     <t>Lager</t>
   </si>
   <si>
-    <t>Gratis parkering, Toilet, Spiseplads, Parkering, Lager, Kontor</t>
-  </si>
-  <si>
-    <t>Ny industrihal under opførsel 2 km fra Aarhus C</t>
-  </si>
-  <si>
-    <t>Gratis parkering, Parkering, Port, Kontor</t>
-  </si>
-  <si>
-    <t>KONTOR TIL LEJE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kontor </t>
+    <t>Kontorlandskab, Spisekøkken, Mødelokale, Parkeringsforhold, Toiletfaciliteter, Lager, Kontor</t>
+  </si>
+  <si>
+    <t>Køl</t>
+  </si>
+  <si>
+    <t>Jagtvej 101</t>
+  </si>
+  <si>
+    <t>København N</t>
+  </si>
+  <si>
+    <t>Funktionel kælderrum centralt på Nørrebro.</t>
+  </si>
+  <si>
+    <t>Kælderrum, Lagerlokale, Lager</t>
+  </si>
+  <si>
+    <t>Østergade 10</t>
+  </si>
+  <si>
+    <t>Tørring</t>
+  </si>
+  <si>
+    <t>Erhvervslejemål tilbydes i Tørring Midtby</t>
+  </si>
+  <si>
+    <t>Butik, Klinik</t>
+  </si>
+  <si>
+    <t>Toilet, Tekøkken, Terrasse</t>
+  </si>
+  <si>
+    <t>Vestergade 15A</t>
+  </si>
+  <si>
+    <t>Vejle</t>
+  </si>
+  <si>
+    <t>Fantastiske Detaillokaler i Hjertet af Vejles Gågade</t>
+  </si>
+  <si>
+    <t>Butikker, Frisørsalon, Butik</t>
+  </si>
+  <si>
+    <t>Depot, Toiletforhold</t>
+  </si>
+  <si>
+    <t>394 m² kontor/showroom</t>
+  </si>
+  <si>
+    <t>Kontor, Kontordomicil</t>
+  </si>
+  <si>
+    <t>Arkivrum, Hanebånd, Toilet, Kontorlandskab, Mødelokale, Plankegulv, Port, Køkken, Lager, Kontor</t>
+  </si>
+  <si>
+    <t>Ramsherred 1C</t>
+  </si>
+  <si>
+    <t>Næstved</t>
+  </si>
+  <si>
+    <t>Tæt på Hjultorv/gågaderne i Næstved centrum!</t>
+  </si>
+  <si>
+    <t>Café, Tøjbutik, Klinik</t>
+  </si>
+  <si>
+    <t>Toilet, Parkeringsplads, Køkken, Kontor</t>
+  </si>
+  <si>
+    <t>Ramsherred 1A</t>
+  </si>
+  <si>
+    <t>Lige ud til Hjultorv i Næstved centrum!</t>
+  </si>
+  <si>
+    <t>Tøjbutik, Café</t>
+  </si>
+  <si>
+    <t>Dania 12</t>
+  </si>
+  <si>
+    <t>En af de allerbedste beliggenheder i hele Næstved centrum!</t>
+  </si>
+  <si>
+    <t>F Energimærke F</t>
+  </si>
+  <si>
+    <t>Ejendomsmæglerbutik</t>
+  </si>
+  <si>
+    <t>Arkiv, Spiseplads, Kælder, Parkeringsplads, Toiletter, Køkken, Lager</t>
+  </si>
+  <si>
+    <t>Sivlandvænget 27C</t>
+  </si>
+  <si>
+    <t>Odense S</t>
+  </si>
+  <si>
+    <t>Kontorlejemål beliggende mod motorvej</t>
+  </si>
+  <si>
+    <t>Toilet, Tekøkken, Parkeringsmulighed, Kontor</t>
+  </si>
+  <si>
+    <t>Klosterbakken 12</t>
+  </si>
+  <si>
+    <t>Odense C</t>
+  </si>
+  <si>
+    <t>Flotte nyistandsatte lokaler</t>
   </si>
   <si>
     <t>Kontorer, Kontor</t>
   </si>
   <si>
-    <t>DETAILHANDEL/BUTIK TIL LEJE</t>
-  </si>
-  <si>
-    <t>Irma Pedersens Gade 2D</t>
-  </si>
-  <si>
-    <t>Aarhus C</t>
-  </si>
-  <si>
-    <t>Bliv en del af det nye pulserende byliv på Aarhus Ø</t>
-  </si>
-  <si>
-    <t>A2010 Energimærke A2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detailhandel/butik </t>
-  </si>
-  <si>
-    <t>Butikker, Butik</t>
-  </si>
-  <si>
-    <t>Parkeringsmulighed, Køkken</t>
-  </si>
-  <si>
-    <t>Skt. Clemens Stræde 9B</t>
-  </si>
-  <si>
-    <t>Centralt beliggende kontorlejemål i baggården</t>
-  </si>
-  <si>
-    <t>E Energimærke E</t>
-  </si>
-  <si>
-    <t>Kontor</t>
-  </si>
-  <si>
-    <t>Baggård, Toilet, Tekøkken, Mødelokale, Parkeringsmulighed, Storrumskontor, Kontor</t>
-  </si>
-  <si>
-    <t>Priorparken 800-833</t>
-  </si>
-  <si>
-    <t>Brøndby</t>
-  </si>
-  <si>
-    <t>Regulært og højloftet lagerlejemål ved Motorring 3</t>
-  </si>
-  <si>
-    <t>Kantine, Lounge, Parkeringsforhold, Port, Kontor</t>
-  </si>
-  <si>
-    <t>Dannebrogsgade 5, 1.</t>
-  </si>
-  <si>
-    <t>København V</t>
-  </si>
-  <si>
-    <t>Kontorlejemål med atmosfære og højt til loftet</t>
-  </si>
-  <si>
-    <t>C Energimærke C</t>
-  </si>
-  <si>
-    <t>Tekøkken, Kontor</t>
-  </si>
-  <si>
-    <t>Jernbanegade 28 2. sal</t>
-  </si>
-  <si>
-    <t>Kolding</t>
-  </si>
-  <si>
-    <t>Kontor- eller kliniklokaler i Kolding C.</t>
-  </si>
-  <si>
-    <t>Kontor, Kontorfællesskab, Klinik</t>
-  </si>
-  <si>
-    <t>Toiletter, Køkken, Kontor</t>
-  </si>
-  <si>
-    <t>Elevator</t>
-  </si>
-  <si>
-    <t>H.C. Andersens Boulevard 49 st.tv.</t>
-  </si>
-  <si>
-    <t>92 m² flotte højloftet kontorlokaler</t>
-  </si>
-  <si>
-    <t>Plankegulv, Stuklofter, Toiletrum, Køkken</t>
-  </si>
-  <si>
-    <t>Tv</t>
-  </si>
-  <si>
-    <t>Grønnegade 10</t>
-  </si>
-  <si>
-    <t>København K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indflytningsklart kontor med imponerende detaljer </t>
-  </si>
-  <si>
-    <t>Indgangsparti, Kontor, DGNB Guld</t>
-  </si>
-  <si>
-    <t>ANDRE TYPER TIL LEJE</t>
-  </si>
-  <si>
-    <t>Overgade 3, 1.</t>
-  </si>
-  <si>
-    <t>Odense C</t>
-  </si>
-  <si>
-    <t>Kliniklejemål i Odenses nye behandlerhus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andre typer </t>
-  </si>
-  <si>
-    <t>Klinik</t>
-  </si>
-  <si>
-    <t>Kælder, Parkering</t>
-  </si>
-  <si>
-    <t>Egtvedvej 1</t>
-  </si>
-  <si>
-    <t>394m² kontor med lager i Kolding N</t>
-  </si>
-  <si>
-    <t>G Energimærke G</t>
-  </si>
-  <si>
-    <t>Kontordomicil, Kontor</t>
-  </si>
-  <si>
-    <t>Arkivrum, Hanebånd, Toilet, Kontorlandskab, Lagerfacilitet, Mødelokale, Plankegulv, Port, Køkken, Lager, Kontor</t>
-  </si>
-  <si>
-    <t>Sindbjerglundvej 10</t>
-  </si>
-  <si>
-    <t>Vejle</t>
-  </si>
-  <si>
-    <t>Lagerejendom i Lindved tæt på motorvej</t>
-  </si>
-  <si>
-    <t>Lagerejendom, Lager</t>
-  </si>
-  <si>
-    <t>Betongulv, Hall, Saddeltag, Port, Lager</t>
-  </si>
-  <si>
-    <t>Mossvej 16-18</t>
-  </si>
-  <si>
-    <t>Horsens</t>
-  </si>
-  <si>
-    <t>Moderne lager- og logistikterminal</t>
-  </si>
-  <si>
-    <t>Parkeringsfaciliteter, Port, Lager, Kontor, DGNB Guld</t>
-  </si>
-  <si>
-    <t>A.P. Møllers Allé 11</t>
-  </si>
-  <si>
-    <t>Dragør</t>
-  </si>
-  <si>
-    <t>Moderne kontorlokaler i Dragør</t>
-  </si>
-  <si>
-    <t>Kontorer, Klinik, Kontor</t>
-  </si>
-  <si>
-    <t>Glasfacade, Mødelokale, Parkering, Parketgulv, Terrasse, Toiletter, Køkken, Lager, Kontor</t>
-  </si>
-  <si>
-    <t>Dannebrogsgade 5, st.</t>
-  </si>
-  <si>
-    <t>Tekøkken, Møderum, Toiletter, Kontor</t>
-  </si>
-  <si>
-    <t>Sylbækvej 1C</t>
-  </si>
-  <si>
-    <t>Åbyhøj</t>
-  </si>
-  <si>
-    <t>Velbeliggende lagerejendom</t>
-  </si>
-  <si>
-    <t>Lager, Produktionsejendom, Lagerejendom</t>
-  </si>
-  <si>
-    <t>Hall, Port, Lager</t>
-  </si>
-  <si>
-    <t>Rabalderstræde 24</t>
-  </si>
-  <si>
-    <t>Roskilde</t>
-  </si>
-  <si>
-    <t>Butik/Cafe/Klinik på Musicon 76 m2</t>
-  </si>
-  <si>
-    <t>A2015 Energimærke A2015</t>
-  </si>
-  <si>
-    <t>Klinik, Butik, Café</t>
-  </si>
-  <si>
-    <t>Toilet, Tekøkken, Parkering</t>
-  </si>
-  <si>
-    <t>Gulvvarme, Ventilation</t>
-  </si>
-  <si>
-    <t>Toftegårdsvej 40</t>
-  </si>
-  <si>
-    <t>Hadsten</t>
-  </si>
-  <si>
-    <t>Fint lagerlejemål med god beliggenhed</t>
-  </si>
-  <si>
-    <t>Bad, Betongulv, Kantine, Rampe, Parkering, Toiletter, Port, Lager, Kontor</t>
-  </si>
-  <si>
-    <t>Oliefabriksvej 61</t>
-  </si>
-  <si>
-    <t>Kastrup</t>
-  </si>
-  <si>
-    <t>FLOT OG NYISTANDSAT KONTOR</t>
-  </si>
-  <si>
-    <t>Depotrum, Parkeringsplads, Toiletter, Trægulve, Køkken, Kontor</t>
-  </si>
-  <si>
-    <t>Hørkær 14</t>
-  </si>
-  <si>
-    <t>Herlev</t>
-  </si>
-  <si>
-    <t>522 m² kontor midt i område med rivende udvikling</t>
-  </si>
-  <si>
-    <t>B Energimærke B</t>
-  </si>
-  <si>
-    <t>Fri parkering, Kantineordning, Parkering, Kontor</t>
-  </si>
-  <si>
-    <t>Graven 5 ST</t>
-  </si>
-  <si>
-    <t>Butikslejemål med fantastisk synlighed</t>
-  </si>
-  <si>
-    <t>Café, Butik</t>
-  </si>
-  <si>
-    <t>Kælder, Toiletfaciliteter</t>
+    <t>Bad, Omklædning, Bjælker, Kantine, Mødelokale, Parkeringsplads, Storrumskontor, Trægulve, Kontor</t>
   </si>
 </sst>
 </file>
@@ -756,22 +774,21 @@
   <dimension ref="A1:P27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="1" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="53" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="62" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
+    <col min="9" max="9" width="44" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="113" customWidth="1"/>
-    <col min="16" max="16" width="24" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -832,7 +849,7 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>8220</v>
+        <v>1620</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -841,7 +858,7 @@
         <v>19</v>
       </c>
       <c r="F2">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -853,13 +870,13 @@
         <v>22</v>
       </c>
       <c r="J2">
-        <v>209000</v>
+        <v>481248</v>
       </c>
       <c r="K2">
-        <v>12000</v>
+        <v>170800</v>
       </c>
       <c r="L2">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -871,7 +888,7 @@
         <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -879,37 +896,37 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>8220</v>
+        <v>9000</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>330</v>
+        <v>547</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J3">
-        <v>205000</v>
+        <v>492300</v>
       </c>
       <c r="K3">
-        <v>12000</v>
+        <v>32820</v>
       </c>
       <c r="L3">
-        <v>330</v>
+        <v>547</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -918,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -929,19 +946,19 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>8220</v>
+        <v>2900</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>730</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -950,16 +967,16 @@
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J4">
-        <v>375000</v>
+        <v>495000</v>
       </c>
       <c r="K4">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>730</v>
+        <v>225</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -968,48 +985,48 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>8220</v>
+        <v>3520</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>430</v>
+        <v>621</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J5">
-        <v>209000</v>
+        <v>558900</v>
       </c>
       <c r="K5">
-        <v>12000</v>
+        <v>248400</v>
       </c>
       <c r="L5">
-        <v>430</v>
+        <v>621</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1018,48 +1035,48 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F6">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J6">
-        <v>162500</v>
+        <v>243000</v>
       </c>
       <c r="K6">
-        <v>37700</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1068,48 +1085,48 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F7">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J7">
-        <v>107500</v>
+        <v>87000</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="L7">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1118,298 +1135,298 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="P7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C8">
-        <v>2605</v>
+        <v>2610</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F8">
-        <v>5350</v>
+        <v>267</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J8">
-        <v>3757</v>
+        <v>232200</v>
       </c>
       <c r="K8">
-        <v>642000</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>5350</v>
+        <v>267</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>23734</v>
+        <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C9">
-        <v>1660</v>
+        <v>4600</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F9">
-        <v>267</v>
+        <v>15258</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J9">
-        <v>387150</v>
+        <v>457740</v>
       </c>
       <c r="K9">
-        <v>54201</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>267</v>
+        <v>15258</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>15258</v>
       </c>
       <c r="O9" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="P9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C10">
-        <v>6000</v>
+        <v>4600</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F10">
-        <v>260</v>
+        <v>10658</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="J10">
-        <v>156000</v>
+        <v>319740</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>260</v>
+        <v>10658</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10658</v>
       </c>
       <c r="O10" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="P10" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>4600</v>
+      </c>
+      <c r="D11" t="s">
         <v>57</v>
-      </c>
-      <c r="C11">
-        <v>1553</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
       </c>
       <c r="E11" t="s">
         <v>58</v>
       </c>
       <c r="F11">
-        <v>92</v>
+        <v>5086</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J11">
-        <v>154000</v>
+        <v>152580</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>92</v>
+        <v>5086</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5086</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="P11" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12">
-        <v>1107</v>
+        <v>4600</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F12">
-        <v>396</v>
+        <v>31002</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J12">
-        <v>970200</v>
+        <v>930060</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>396</v>
+        <v>31002</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>31002</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="P12" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C13">
-        <v>5000</v>
+        <v>2800</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F13">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J13">
-        <v>148800</v>
+        <v>423729</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1418,39 +1435,39 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="P13" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C14">
         <v>6000</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F14">
         <v>394</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J14">
         <v>240000</v>
@@ -1468,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1479,99 +1496,99 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C15">
-        <v>7100</v>
+        <v>1553</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F15">
-        <v>1713</v>
+        <v>313</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
         <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="J15">
-        <v>325470</v>
+        <v>388600</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>129895</v>
       </c>
       <c r="L15">
-        <v>1713</v>
+        <v>313</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="P15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C16">
-        <v>8700</v>
+        <v>4400</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F16">
-        <v>15330</v>
+        <v>13400</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
         <v>22</v>
       </c>
       <c r="J16">
-        <v>7733</v>
+        <v>938000</v>
       </c>
       <c r="K16">
-        <v>536550</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>15330</v>
+        <v>13400</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>13400</v>
       </c>
       <c r="O16" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="P16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1579,137 +1596,137 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C17">
-        <v>8700</v>
+        <v>7500</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F17">
-        <v>15330</v>
+        <v>330</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
         <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="J17">
-        <v>7733</v>
+        <v>214500</v>
       </c>
       <c r="K17">
-        <v>536550</v>
+        <v>4500</v>
       </c>
       <c r="L17">
-        <v>15330</v>
+        <v>330</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5659</v>
       </c>
       <c r="O17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18">
+        <v>9000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18">
+        <v>401</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" t="s">
         <v>86</v>
       </c>
-      <c r="C18">
-        <v>2791</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="J18">
+        <v>244425</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>401</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
         <v>87</v>
       </c>
-      <c r="E18" t="s">
+      <c r="P18" t="s">
         <v>88</v>
-      </c>
-      <c r="F18">
-        <v>72</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18">
-        <v>72000</v>
-      </c>
-      <c r="K18">
-        <v>14400</v>
-      </c>
-      <c r="L18">
-        <v>72</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>1555</v>
-      </c>
-      <c r="O18" t="s">
-        <v>90</v>
-      </c>
-      <c r="P18" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19">
+        <v>2200</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
         <v>91</v>
       </c>
-      <c r="C19">
-        <v>1660</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
       <c r="F19">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J19">
-        <v>220400</v>
+        <v>31500</v>
       </c>
       <c r="K19">
-        <v>30856</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1721,45 +1738,45 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C20">
-        <v>5000</v>
+        <v>7160</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="F20">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="J20">
-        <v>133200</v>
+        <v>90000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1768,48 +1785,48 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C21">
-        <v>8230</v>
+        <v>7100</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F21">
-        <v>700</v>
+        <v>114</v>
       </c>
       <c r="G21" t="s">
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J21">
-        <v>280000</v>
+        <v>150000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>700</v>
+        <v>114</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1818,98 +1835,98 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C22">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F22">
-        <v>76</v>
+        <v>394</v>
       </c>
       <c r="G22" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J22">
-        <v>110200</v>
+        <v>240000</v>
       </c>
       <c r="K22">
-        <v>15580</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>76</v>
+        <v>394</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2068</v>
       </c>
       <c r="O22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C23">
-        <v>8370</v>
+        <v>4700</v>
       </c>
       <c r="D23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F23">
-        <v>6416</v>
+        <v>139</v>
       </c>
       <c r="G23" t="s">
         <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="J23">
-        <v>1405</v>
+        <v>166800</v>
       </c>
       <c r="K23">
-        <v>192480</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6416</v>
+        <v>139</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1918,98 +1935,98 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C24">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="F24">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="G24" t="s">
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="J24">
-        <v>169200</v>
+        <v>238800</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1310</v>
       </c>
       <c r="O24" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="P24" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C25">
-        <v>2770</v>
+        <v>4700</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F25">
-        <v>91</v>
+        <v>273</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="H25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="J25">
-        <v>86400</v>
+        <v>360000</v>
       </c>
       <c r="K25">
-        <v>11830</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>91</v>
+        <v>273</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2018,98 +2035,98 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="P25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C26">
-        <v>2730</v>
+        <v>5260</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F26">
-        <v>522</v>
+        <v>110</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J26">
-        <v>443700</v>
+        <v>74250</v>
       </c>
       <c r="K26">
-        <v>106488</v>
+        <v>12500</v>
       </c>
       <c r="L26">
-        <v>522</v>
+        <v>110</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>10362</v>
       </c>
       <c r="O26" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C27">
-        <v>8700</v>
+        <v>5000</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F27">
-        <v>99</v>
+        <v>392</v>
       </c>
       <c r="G27" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="J27">
-        <v>150000</v>
+        <v>431200</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>46045</v>
       </c>
       <c r="L27">
-        <v>99</v>
+        <v>392</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2118,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="P27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/leje.xlsx
+++ b/leje.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="129">
   <si>
     <t>Type til leje</t>
   </si>
@@ -61,9 +61,63 @@
     <t>Teknik</t>
   </si>
   <si>
+    <t>HOTEL &amp; RESTAURANT TIL LEJE</t>
+  </si>
+  <si>
+    <t>Over Bølgen 15</t>
+  </si>
+  <si>
+    <t>Greve</t>
+  </si>
+  <si>
+    <t>200 m2 butik, café, restauration, kontor</t>
+  </si>
+  <si>
+    <t>B Energimærke B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel &amp; Restaurant </t>
+  </si>
+  <si>
+    <t>Spisested, Café</t>
+  </si>
+  <si>
+    <t>Toilet, Spisekøkken, Mødelokale, Parkering, Kontor</t>
+  </si>
+  <si>
+    <t>Klimaanlæg, Teknikrum</t>
+  </si>
+  <si>
     <t>KONTOR TIL LEJE</t>
   </si>
   <si>
+    <t xml:space="preserve">Kontor </t>
+  </si>
+  <si>
+    <t>Klinik, Kontor</t>
+  </si>
+  <si>
+    <t>Torvegade 62</t>
+  </si>
+  <si>
+    <t>København K</t>
+  </si>
+  <si>
+    <t>Lokaler til restaurant i Christianshavner ejendom</t>
+  </si>
+  <si>
+    <t>C Energimærke C</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Kælder, Lagerrum, Vinkælder, Køkken</t>
+  </si>
+  <si>
+    <t>Køleskab</t>
+  </si>
+  <si>
     <t>Vesterbrogade 149</t>
   </si>
   <si>
@@ -73,12 +127,6 @@
     <t>Det ikoniske flerbrugerhus midt på Vesterbro</t>
   </si>
   <si>
-    <t>C Energimærke C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kontor </t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -94,9 +142,6 @@
     <t>Attraktivt kontorlejemål på central placering</t>
   </si>
   <si>
-    <t>B Energimærke B</t>
-  </si>
-  <si>
     <t>Domicil</t>
   </si>
   <si>
@@ -193,6 +238,36 @@
     <t xml:space="preserve">Grunde </t>
   </si>
   <si>
+    <t>Egtvedvej 1</t>
+  </si>
+  <si>
+    <t>Kolding</t>
+  </si>
+  <si>
+    <t>394m² kontor med lager i Kolding N</t>
+  </si>
+  <si>
+    <t>G Energimærke G</t>
+  </si>
+  <si>
+    <t>Kontordomicil, Kontor</t>
+  </si>
+  <si>
+    <t>Arkivrum, Hanebånd, Toilet, Kontorlandskab, Lagerfacilitet, Mødelokale, Plankegulv, Port, Køkken, Lager, Kontor</t>
+  </si>
+  <si>
+    <t>H.C. Andersens Boulevard 38</t>
+  </si>
+  <si>
+    <t>Klassisk lejemål i historisk ejendom</t>
+  </si>
+  <si>
+    <t>E Energimærke E</t>
+  </si>
+  <si>
+    <t>Indgangsparti, Kælder, Paneler, Parkeringshus, Sildebensparketgulv</t>
+  </si>
+  <si>
     <t>Bragesvej 2</t>
   </si>
   <si>
@@ -208,36 +283,6 @@
     <t>Toilet, Tekøkken, Lager</t>
   </si>
   <si>
-    <t>Egtvedvej 1</t>
-  </si>
-  <si>
-    <t>Kolding</t>
-  </si>
-  <si>
-    <t>394m² kontor med lager i Kolding N</t>
-  </si>
-  <si>
-    <t>G Energimærke G</t>
-  </si>
-  <si>
-    <t>Kontordomicil, Kontor</t>
-  </si>
-  <si>
-    <t>Arkivrum, Hanebånd, Toilet, Kontorlandskab, Lagerfacilitet, Mødelokale, Plankegulv, Port, Køkken, Lager, Kontor</t>
-  </si>
-  <si>
-    <t>H.C. Andersens Boulevard 38</t>
-  </si>
-  <si>
-    <t>Klassisk lejemål i historisk ejendom</t>
-  </si>
-  <si>
-    <t>E Energimærke E</t>
-  </si>
-  <si>
-    <t>Indgangsparti, Kælder, Paneler, Parkeringshus, Sildebensparketgulv</t>
-  </si>
-  <si>
     <t>Hovvejen 114</t>
   </si>
   <si>
@@ -353,48 +398,6 @@
   </si>
   <si>
     <t>Tøjbutik, Café</t>
-  </si>
-  <si>
-    <t>Dania 12</t>
-  </si>
-  <si>
-    <t>En af de allerbedste beliggenheder i hele Næstved centrum!</t>
-  </si>
-  <si>
-    <t>F Energimærke F</t>
-  </si>
-  <si>
-    <t>Ejendomsmæglerbutik</t>
-  </si>
-  <si>
-    <t>Arkiv, Spiseplads, Kælder, Parkeringsplads, Toiletter, Køkken, Lager</t>
-  </si>
-  <si>
-    <t>Sivlandvænget 27C</t>
-  </si>
-  <si>
-    <t>Odense S</t>
-  </si>
-  <si>
-    <t>Kontorlejemål beliggende mod motorvej</t>
-  </si>
-  <si>
-    <t>Toilet, Tekøkken, Parkeringsmulighed, Kontor</t>
-  </si>
-  <si>
-    <t>Klosterbakken 12</t>
-  </si>
-  <si>
-    <t>Odense C</t>
-  </si>
-  <si>
-    <t>Flotte nyistandsatte lokaler</t>
-  </si>
-  <si>
-    <t>Kontorer, Kontor</t>
-  </si>
-  <si>
-    <t>Bad, Omklædning, Bjælker, Kantine, Mødelokale, Parkeringsplads, Storrumskontor, Trægulve, Kontor</t>
   </si>
 </sst>
 </file>
@@ -788,7 +791,7 @@
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="113" customWidth="1"/>
-    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="16" max="16" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -849,7 +852,7 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>1620</v>
+        <v>2670</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -858,7 +861,7 @@
         <v>19</v>
       </c>
       <c r="F2">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -870,13 +873,13 @@
         <v>22</v>
       </c>
       <c r="J2">
-        <v>481248</v>
+        <v>576000</v>
       </c>
       <c r="K2">
-        <v>170800</v>
+        <v>162860</v>
       </c>
       <c r="L2">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -888,57 +891,57 @@
         <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>2670</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>576000</v>
+      </c>
+      <c r="K3">
+        <v>162860</v>
+      </c>
+      <c r="L3">
+        <v>200</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3">
-        <v>9000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>547</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3">
-        <v>492300</v>
-      </c>
-      <c r="K3">
-        <v>32820</v>
-      </c>
-      <c r="L3">
-        <v>547</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -946,40 +949,40 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>1400</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="C4">
-        <v>2900</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4">
+        <v>273</v>
+      </c>
+      <c r="G4" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <v>225</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J4">
-        <v>495000</v>
+        <v>753600</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>54000</v>
       </c>
       <c r="L4">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -988,45 +991,45 @@
         <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>3520</v>
+        <v>1620</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5">
-        <v>621</v>
+        <v>350</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5">
-        <v>558900</v>
+        <v>481248</v>
       </c>
       <c r="K5">
-        <v>248400</v>
+        <v>170800</v>
       </c>
       <c r="L5">
-        <v>621</v>
+        <v>350</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1035,21 +1038,21 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
       <c r="C6">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="D6" t="s">
         <v>41</v>
@@ -1058,25 +1061,25 @@
         <v>42</v>
       </c>
       <c r="F6">
-        <v>145</v>
+        <v>547</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
       <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
         <v>43</v>
       </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
       <c r="J6">
-        <v>243000</v>
+        <v>492300</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>32820</v>
       </c>
       <c r="L6">
-        <v>145</v>
+        <v>547</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1088,45 +1091,45 @@
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
       </c>
       <c r="C7">
-        <v>9000</v>
+        <v>2900</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J7">
-        <v>87000</v>
+        <v>495000</v>
       </c>
       <c r="K7">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1138,336 +1141,336 @@
         <v>48</v>
       </c>
       <c r="P7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8">
+        <v>3520</v>
+      </c>
+      <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="C8">
-        <v>2610</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8">
+        <v>621</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
         <v>52</v>
       </c>
-      <c r="F8">
-        <v>267</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="J8">
+        <v>558900</v>
+      </c>
+      <c r="K8">
+        <v>248400</v>
+      </c>
+      <c r="L8">
+        <v>621</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
         <v>53</v>
       </c>
-      <c r="I8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8">
-        <v>232200</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>267</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
-        <v>54</v>
-      </c>
       <c r="P8" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9">
+        <v>2000</v>
+      </c>
+      <c r="D9" t="s">
         <v>56</v>
       </c>
-      <c r="C9">
-        <v>4600</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9">
+        <v>145</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
         <v>58</v>
       </c>
-      <c r="F9">
-        <v>15258</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <v>243000</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>145</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
         <v>59</v>
       </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9">
-        <v>457740</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>15258</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>15258</v>
-      </c>
-      <c r="O9" t="s">
-        <v>22</v>
-      </c>
       <c r="P9" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>4600</v>
+        <v>9000</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
         <v>58</v>
       </c>
-      <c r="F10">
-        <v>10658</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>59</v>
-      </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="J10">
-        <v>319740</v>
+        <v>87000</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="L10">
-        <v>10658</v>
+        <v>81</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10658</v>
+        <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="P10" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C11">
-        <v>4600</v>
+        <v>2610</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F11">
-        <v>5086</v>
+        <v>267</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J11">
-        <v>152580</v>
+        <v>232200</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5086</v>
+        <v>267</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5086</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="P11" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C12">
         <v>4600</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F12">
-        <v>31002</v>
+        <v>15258</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J12">
-        <v>930060</v>
+        <v>457740</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>31002</v>
+        <v>15258</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31002</v>
+        <v>15258</v>
       </c>
       <c r="O12" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="P12" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C13">
-        <v>2800</v>
+        <v>4600</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F13">
-        <v>57</v>
+        <v>10658</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J13">
-        <v>423729</v>
+        <v>319740</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>57</v>
+        <v>10658</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>10658</v>
       </c>
       <c r="O13" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="P13" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C14">
         <v>6000</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F14">
         <v>394</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J14">
         <v>240000</v>
@@ -1485,39 +1488,39 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C15">
         <v>1553</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F15">
         <v>313</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J15">
         <v>388600</v>
@@ -1535,148 +1538,148 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C16">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F16">
-        <v>13400</v>
+        <v>5086</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J16">
-        <v>938000</v>
+        <v>152580</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13400</v>
+        <v>5086</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13400</v>
+        <v>5086</v>
       </c>
       <c r="O16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="P16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C17">
-        <v>7500</v>
+        <v>4600</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F17">
-        <v>330</v>
+        <v>31002</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="J17">
-        <v>214500</v>
+        <v>930060</v>
       </c>
       <c r="K17">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>330</v>
+        <v>31002</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5659</v>
+        <v>31002</v>
       </c>
       <c r="O17" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="P17" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C18">
-        <v>9000</v>
+        <v>2800</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F18">
-        <v>401</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J18">
-        <v>244425</v>
+        <v>423729</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>401</v>
+        <v>57</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1685,71 +1688,71 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P18" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F19">
-        <v>35</v>
+        <v>13400</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J19">
-        <v>31500</v>
+        <v>938000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>13400</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>13400</v>
       </c>
       <c r="O19" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="P19" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>93</v>
       </c>
       <c r="C20">
-        <v>7160</v>
+        <v>7500</v>
       </c>
       <c r="D20" t="s">
         <v>94</v>
@@ -1758,75 +1761,75 @@
         <v>95</v>
       </c>
       <c r="F20">
-        <v>163</v>
+        <v>330</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I20" t="s">
         <v>96</v>
       </c>
       <c r="J20">
-        <v>90000</v>
+        <v>214500</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="L20">
-        <v>163</v>
+        <v>330</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5659</v>
       </c>
       <c r="O20" t="s">
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
         <v>98</v>
       </c>
       <c r="C21">
-        <v>7100</v>
+        <v>9000</v>
       </c>
       <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
         <v>99</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21">
+        <v>401</v>
+      </c>
+      <c r="G21" t="s">
         <v>100</v>
       </c>
-      <c r="F21">
-        <v>114</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="I21" t="s">
         <v>101</v>
       </c>
       <c r="J21">
-        <v>150000</v>
+        <v>244425</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>114</v>
+        <v>401</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1838,95 +1841,95 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C22">
-        <v>6000</v>
+        <v>2200</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F22">
-        <v>394</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
         <v>68</v>
       </c>
-      <c r="H22" t="s">
-        <v>21</v>
-      </c>
       <c r="I22" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="J22">
-        <v>240000</v>
+        <v>31500</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>394</v>
+        <v>35</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2068</v>
+        <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C23">
-        <v>4700</v>
+        <v>7160</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F23">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="G23" t="s">
         <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="I23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J23">
-        <v>166800</v>
+        <v>90000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1935,210 +1938,210 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C24">
-        <v>4700</v>
+        <v>7100</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F24">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="I24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J24">
-        <v>238800</v>
+        <v>150000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="P24" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C25">
-        <v>4700</v>
+        <v>6000</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F25">
-        <v>273</v>
+        <v>394</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J25">
-        <v>360000</v>
+        <v>240000</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>273</v>
+        <v>394</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2068</v>
       </c>
       <c r="O25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P25" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C26">
-        <v>5260</v>
+        <v>4700</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F26">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="J26">
-        <v>74250</v>
+        <v>166800</v>
       </c>
       <c r="K26">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>10362</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P26" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C27">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27">
+        <v>199</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" t="s">
+        <v>128</v>
+      </c>
+      <c r="J27">
+        <v>238800</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>199</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1310</v>
+      </c>
+      <c r="O27" t="s">
         <v>125</v>
       </c>
-      <c r="F27">
-        <v>392</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" t="s">
-        <v>126</v>
-      </c>
-      <c r="J27">
-        <v>431200</v>
-      </c>
-      <c r="K27">
-        <v>46045</v>
-      </c>
-      <c r="L27">
-        <v>392</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27" t="s">
-        <v>127</v>
-      </c>
       <c r="P27" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
